--- a/Document/8.1.ProjectTestCaseSprint3.xlsx
+++ b/Document/8.1.ProjectTestCaseSprint3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1400CA39-B2C7-4D58-9D67-2E29D7CFF158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FFF2F6-52FD-44EB-A870-FA660AC27E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp kiểm thử" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="514">
   <si>
     <t>Tên dự án</t>
   </si>
@@ -2038,7 +2038,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2073,18 +2073,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
@@ -2423,7 +2411,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2710,13 +2698,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2783,17 +2765,65 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2801,12 +2831,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2822,29 +2846,17 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2852,53 +2864,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3851,10 +3833,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A2" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -3867,31 +3849,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
     </row>
     <row r="3" spans="1:5" ht="16.8" customHeight="1">
       <c r="A3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="53" t="s">
@@ -3911,85 +3893,87 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="134">
+      <c r="A5" s="132">
         <v>1</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="132" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="54">
         <v>34</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="135" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="171">
+      <c r="A6" s="141">
         <v>2</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="132" t="s">
         <v>504</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="134">
         <v>20</v>
       </c>
-      <c r="E6" s="137"/>
+      <c r="E6" s="135" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="172"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="134" t="s">
+      <c r="A7" s="142"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="132" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="136">
+      <c r="D7" s="134">
         <v>20</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="135" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="173"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="134" t="s">
+      <c r="A8" s="143"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="132" t="s">
         <v>301</v>
       </c>
       <c r="D8" s="91">
         <v>20</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="135" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="174">
+      <c r="A9" s="132">
         <v>3</v>
       </c>
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="132" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="91">
         <v>14</v>
       </c>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="135" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="134">
+      <c r="A10" s="132">
         <v>4</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="132" t="s">
         <v>480</v>
       </c>
       <c r="C10" s="90" t="s">
@@ -3998,47 +3982,47 @@
       <c r="D10" s="54">
         <v>5</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="135" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="134">
+      <c r="A11" s="132">
         <v>5</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="132" t="s">
         <v>497</v>
       </c>
       <c r="C11" s="90" t="s">
         <v>497</v>
       </c>
-      <c r="D11" s="136">
+      <c r="D11" s="134">
         <v>10</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="135" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="139">
+      <c r="A12" s="140">
         <v>6</v>
       </c>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="140" t="s">
         <v>329</v>
       </c>
       <c r="C12" s="90" t="s">
         <v>355</v>
       </c>
-      <c r="D12" s="136">
+      <c r="D12" s="134">
         <v>16</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="135" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="90" t="s">
         <v>419</v>
       </c>
@@ -4050,8 +4034,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="139"/>
-      <c r="B14" s="139"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="90" t="s">
         <v>354</v>
       </c>
@@ -4060,6 +4044,12 @@
       </c>
       <c r="E14" s="88" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="8">
+        <f>SUM(D5:D14)</f>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4081,7 +4071,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -4106,13 +4096,13 @@
       <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -4121,13 +4111,13 @@
       <c r="A2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="169" t="s">
         <v>419</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -4213,64 +4203,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="168" t="s">
+      <c r="G7" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168" t="s">
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168" t="s">
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168" t="s">
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="168"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="46" t="s">
         <v>54</v>
       </c>
@@ -4289,24 +4279,24 @@
       <c r="L9" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="168"/>
+      <c r="M9" s="173"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="174" t="s">
         <v>420</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A11" s="48" t="s">
@@ -4326,7 +4316,7 @@
       <c r="G11" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="138">
+      <c r="H11" s="136">
         <v>45813</v>
       </c>
       <c r="I11" s="52" t="s">
@@ -4335,7 +4325,7 @@
       <c r="J11" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="136">
         <v>45843</v>
       </c>
       <c r="L11" s="52" t="s">
@@ -4361,7 +4351,7 @@
       <c r="G12" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="138">
+      <c r="H12" s="136">
         <v>45813</v>
       </c>
       <c r="I12" s="52" t="s">
@@ -4370,7 +4360,7 @@
       <c r="J12" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="136">
         <v>45843</v>
       </c>
       <c r="L12" s="52" t="s">
@@ -4396,7 +4386,7 @@
       <c r="G13" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="138">
+      <c r="H13" s="136">
         <v>45813</v>
       </c>
       <c r="I13" s="52" t="s">
@@ -4405,7 +4395,7 @@
       <c r="J13" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="136">
         <v>45843</v>
       </c>
       <c r="L13" s="52" t="s">
@@ -4431,7 +4421,7 @@
       <c r="G14" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="138">
+      <c r="H14" s="136">
         <v>45813</v>
       </c>
       <c r="I14" s="52" t="s">
@@ -4440,7 +4430,7 @@
       <c r="J14" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="138">
+      <c r="K14" s="136">
         <v>45843</v>
       </c>
       <c r="L14" s="52" t="s">
@@ -4466,7 +4456,7 @@
       <c r="G15" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="138">
+      <c r="H15" s="136">
         <v>45813</v>
       </c>
       <c r="I15" s="52" t="s">
@@ -4475,7 +4465,7 @@
       <c r="J15" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="138">
+      <c r="K15" s="136">
         <v>45843</v>
       </c>
       <c r="L15" s="52" t="s">
@@ -4484,21 +4474,21 @@
       <c r="M15" s="85"/>
     </row>
     <row r="16" spans="1:13" s="31" customFormat="1">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="172" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="169"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
     </row>
     <row r="17" spans="1:13" s="31" customFormat="1" ht="171" customHeight="1">
       <c r="A17" s="49" t="s">
@@ -4520,7 +4510,7 @@
       <c r="G17" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="138">
+      <c r="H17" s="136">
         <v>45813</v>
       </c>
       <c r="I17" s="52" t="s">
@@ -4529,7 +4519,7 @@
       <c r="J17" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="138">
+      <c r="K17" s="136">
         <v>45843</v>
       </c>
       <c r="L17" s="52" t="s">
@@ -4559,7 +4549,7 @@
       <c r="G18" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="138">
+      <c r="H18" s="136">
         <v>45813</v>
       </c>
       <c r="I18" s="52" t="s">
@@ -4568,7 +4558,7 @@
       <c r="J18" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="138">
+      <c r="K18" s="136">
         <v>45843</v>
       </c>
       <c r="L18" s="52" t="s">
@@ -4598,7 +4588,7 @@
       <c r="G19" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="138">
+      <c r="H19" s="136">
         <v>45813</v>
       </c>
       <c r="I19" s="52" t="s">
@@ -4607,7 +4597,7 @@
       <c r="J19" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="138">
+      <c r="K19" s="136">
         <v>45843</v>
       </c>
       <c r="L19" s="52" t="s">
@@ -4637,7 +4627,7 @@
       <c r="G20" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="136">
         <v>45813</v>
       </c>
       <c r="I20" s="52" t="s">
@@ -4646,7 +4636,7 @@
       <c r="J20" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="138">
+      <c r="K20" s="136">
         <v>45843</v>
       </c>
       <c r="L20" s="52" t="s">
@@ -4658,10 +4648,10 @@
       <c r="A21" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="133" t="s">
         <v>386</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="133" t="s">
         <v>387</v>
       </c>
       <c r="D21" s="49" t="s">
@@ -4676,7 +4666,7 @@
       <c r="G21" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="138">
+      <c r="H21" s="136">
         <v>45813</v>
       </c>
       <c r="I21" s="52" t="s">
@@ -4685,7 +4675,7 @@
       <c r="J21" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="138">
+      <c r="K21" s="136">
         <v>45843</v>
       </c>
       <c r="L21" s="52" t="s">
@@ -4697,10 +4687,10 @@
       <c r="A22" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="133" t="s">
         <v>388</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="133" t="s">
         <v>389</v>
       </c>
       <c r="D22" s="49" t="s">
@@ -4715,7 +4705,7 @@
       <c r="G22" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="138">
+      <c r="H22" s="136">
         <v>45813</v>
       </c>
       <c r="I22" s="52" t="s">
@@ -4724,7 +4714,7 @@
       <c r="J22" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="138">
+      <c r="K22" s="136">
         <v>45843</v>
       </c>
       <c r="L22" s="52" t="s">
@@ -4736,10 +4726,10 @@
       <c r="A23" s="49" t="s">
         <v>453</v>
       </c>
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="133" t="s">
         <v>390</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="133" t="s">
         <v>391</v>
       </c>
       <c r="D23" s="49" t="s">
@@ -4754,7 +4744,7 @@
       <c r="G23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="138">
+      <c r="H23" s="136">
         <v>45813</v>
       </c>
       <c r="I23" s="52" t="s">
@@ -4763,7 +4753,7 @@
       <c r="J23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="138">
+      <c r="K23" s="136">
         <v>45843</v>
       </c>
       <c r="L23" s="52" t="s">
@@ -4793,7 +4783,7 @@
       <c r="G24" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="138">
+      <c r="H24" s="136">
         <v>45813</v>
       </c>
       <c r="I24" s="52" t="s">
@@ -4802,7 +4792,7 @@
       <c r="J24" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="138">
+      <c r="K24" s="136">
         <v>45843</v>
       </c>
       <c r="L24" s="52" t="s">
@@ -4832,7 +4822,7 @@
       <c r="G25" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="138">
+      <c r="H25" s="136">
         <v>45813</v>
       </c>
       <c r="I25" s="52" t="s">
@@ -4841,7 +4831,7 @@
       <c r="J25" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K25" s="138">
+      <c r="K25" s="136">
         <v>45843</v>
       </c>
       <c r="L25" s="52" t="s">
@@ -4871,7 +4861,7 @@
       <c r="G26" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="138">
+      <c r="H26" s="136">
         <v>45813</v>
       </c>
       <c r="I26" s="52" t="s">
@@ -4880,7 +4870,7 @@
       <c r="J26" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="138">
+      <c r="K26" s="136">
         <v>45843</v>
       </c>
       <c r="L26" s="52" t="s">
@@ -4910,7 +4900,7 @@
       <c r="G27" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="138">
+      <c r="H27" s="136">
         <v>45813</v>
       </c>
       <c r="I27" s="52" t="s">
@@ -4919,7 +4909,7 @@
       <c r="J27" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="138">
+      <c r="K27" s="136">
         <v>45843</v>
       </c>
       <c r="L27" s="52" t="s">
@@ -4929,6 +4919,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -4937,13 +4934,6 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="1">
@@ -4963,7 +4953,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -4988,13 +4978,13 @@
       <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -5003,13 +4993,13 @@
       <c r="A2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="169" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -5095,64 +5085,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="168" t="s">
+      <c r="G7" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168" t="s">
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168" t="s">
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168" t="s">
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="168"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="46" t="s">
         <v>54</v>
       </c>
@@ -5171,24 +5161,24 @@
       <c r="L9" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="168"/>
+      <c r="M9" s="173"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="174" t="s">
         <v>433</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A11" s="48" t="s">
@@ -5208,7 +5198,7 @@
       <c r="G11" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="138">
+      <c r="H11" s="136">
         <v>45813</v>
       </c>
       <c r="I11" s="52" t="s">
@@ -5217,7 +5207,7 @@
       <c r="J11" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="136">
         <v>45843</v>
       </c>
       <c r="L11" s="52" t="s">
@@ -5243,7 +5233,7 @@
       <c r="G12" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="138">
+      <c r="H12" s="136">
         <v>45813</v>
       </c>
       <c r="I12" s="52" t="s">
@@ -5252,7 +5242,7 @@
       <c r="J12" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="136">
         <v>45843</v>
       </c>
       <c r="L12" s="52" t="s">
@@ -5278,7 +5268,7 @@
       <c r="G13" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="138">
+      <c r="H13" s="136">
         <v>45813</v>
       </c>
       <c r="I13" s="52" t="s">
@@ -5287,7 +5277,7 @@
       <c r="J13" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="136">
         <v>45843</v>
       </c>
       <c r="L13" s="52" t="s">
@@ -5313,7 +5303,7 @@
       <c r="G14" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="138">
+      <c r="H14" s="136">
         <v>45813</v>
       </c>
       <c r="I14" s="52" t="s">
@@ -5322,7 +5312,7 @@
       <c r="J14" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="138">
+      <c r="K14" s="136">
         <v>45843</v>
       </c>
       <c r="L14" s="52" t="s">
@@ -5348,7 +5338,7 @@
       <c r="G15" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="138">
+      <c r="H15" s="136">
         <v>45813</v>
       </c>
       <c r="I15" s="52" t="s">
@@ -5357,7 +5347,7 @@
       <c r="J15" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="138">
+      <c r="K15" s="136">
         <v>45843</v>
       </c>
       <c r="L15" s="52" t="s">
@@ -5366,21 +5356,21 @@
       <c r="M15" s="85"/>
     </row>
     <row r="16" spans="1:13" s="31" customFormat="1">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="172" t="s">
         <v>434</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="169"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
     </row>
     <row r="17" spans="1:13" s="31" customFormat="1" ht="171" customHeight="1">
       <c r="A17" s="49" t="s">
@@ -5402,7 +5392,7 @@
       <c r="G17" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="138">
+      <c r="H17" s="136">
         <v>45813</v>
       </c>
       <c r="I17" s="52" t="s">
@@ -5411,7 +5401,7 @@
       <c r="J17" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="138">
+      <c r="K17" s="136">
         <v>45843</v>
       </c>
       <c r="L17" s="52" t="s">
@@ -5441,7 +5431,7 @@
       <c r="G18" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="138">
+      <c r="H18" s="136">
         <v>45813</v>
       </c>
       <c r="I18" s="52" t="s">
@@ -5450,7 +5440,7 @@
       <c r="J18" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="138">
+      <c r="K18" s="136">
         <v>45843</v>
       </c>
       <c r="L18" s="52" t="s">
@@ -5480,7 +5470,7 @@
       <c r="G19" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="138">
+      <c r="H19" s="136">
         <v>45813</v>
       </c>
       <c r="I19" s="52" t="s">
@@ -5489,7 +5479,7 @@
       <c r="J19" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="138">
+      <c r="K19" s="136">
         <v>45843</v>
       </c>
       <c r="L19" s="52" t="s">
@@ -5519,7 +5509,7 @@
       <c r="G20" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="136">
         <v>45813</v>
       </c>
       <c r="I20" s="52" t="s">
@@ -5528,7 +5518,7 @@
       <c r="J20" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="138">
+      <c r="K20" s="136">
         <v>45843</v>
       </c>
       <c r="L20" s="52" t="s">
@@ -5540,10 +5530,10 @@
       <c r="A21" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="133" t="s">
         <v>386</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="133" t="s">
         <v>387</v>
       </c>
       <c r="D21" s="49" t="s">
@@ -5558,7 +5548,7 @@
       <c r="G21" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="138">
+      <c r="H21" s="136">
         <v>45813</v>
       </c>
       <c r="I21" s="52" t="s">
@@ -5567,7 +5557,7 @@
       <c r="J21" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="138">
+      <c r="K21" s="136">
         <v>45843</v>
       </c>
       <c r="L21" s="52" t="s">
@@ -5579,10 +5569,10 @@
       <c r="A22" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="133" t="s">
         <v>502</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="133" t="s">
         <v>389</v>
       </c>
       <c r="D22" s="49" t="s">
@@ -5597,7 +5587,7 @@
       <c r="G22" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="138">
+      <c r="H22" s="136">
         <v>45813</v>
       </c>
       <c r="I22" s="52" t="s">
@@ -5606,7 +5596,7 @@
       <c r="J22" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="138">
+      <c r="K22" s="136">
         <v>45843</v>
       </c>
       <c r="L22" s="52" t="s">
@@ -5618,10 +5608,10 @@
       <c r="A23" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="133" t="s">
         <v>390</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="133" t="s">
         <v>391</v>
       </c>
       <c r="D23" s="49" t="s">
@@ -5636,7 +5626,7 @@
       <c r="G23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="138">
+      <c r="H23" s="136">
         <v>45813</v>
       </c>
       <c r="I23" s="52" t="s">
@@ -5645,7 +5635,7 @@
       <c r="J23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="138">
+      <c r="K23" s="136">
         <v>45843</v>
       </c>
       <c r="L23" s="52" t="s">
@@ -5675,7 +5665,7 @@
       <c r="G24" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="138">
+      <c r="H24" s="136">
         <v>45813</v>
       </c>
       <c r="I24" s="52" t="s">
@@ -5684,7 +5674,7 @@
       <c r="J24" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="138">
+      <c r="K24" s="136">
         <v>45843</v>
       </c>
       <c r="L24" s="52" t="s">
@@ -5714,7 +5704,7 @@
       <c r="G25" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="138">
+      <c r="H25" s="136">
         <v>45813</v>
       </c>
       <c r="I25" s="52" t="s">
@@ -5723,7 +5713,7 @@
       <c r="J25" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K25" s="138">
+      <c r="K25" s="136">
         <v>45843</v>
       </c>
       <c r="L25" s="52" t="s">
@@ -5753,7 +5743,7 @@
       <c r="G26" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="138">
+      <c r="H26" s="136">
         <v>45813</v>
       </c>
       <c r="I26" s="52" t="s">
@@ -5762,7 +5752,7 @@
       <c r="J26" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="138">
+      <c r="K26" s="136">
         <v>45843</v>
       </c>
       <c r="L26" s="52" t="s">
@@ -5792,7 +5782,7 @@
       <c r="G27" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="138">
+      <c r="H27" s="136">
         <v>45813</v>
       </c>
       <c r="I27" s="52" t="s">
@@ -5801,7 +5791,7 @@
       <c r="J27" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="138">
+      <c r="K27" s="136">
         <v>45843</v>
       </c>
       <c r="L27" s="52" t="s">
@@ -5831,7 +5821,7 @@
       <c r="G28" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="H28" s="138">
+      <c r="H28" s="136">
         <v>45813</v>
       </c>
       <c r="I28" s="52" t="s">
@@ -5840,7 +5830,7 @@
       <c r="J28" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="138">
+      <c r="K28" s="136">
         <v>45843</v>
       </c>
       <c r="L28" s="52" t="s">
@@ -5850,6 +5840,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -5858,13 +5855,6 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="1">
@@ -5900,24 +5890,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="24.6">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="13.2">
       <c r="A2" s="2"/>
@@ -5941,22 +5931,22 @@
       <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="159"/>
+      <c r="C3" s="156"/>
       <c r="D3" s="56"/>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="152" t="s">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="154"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="151"/>
       <c r="L3" s="57"/>
       <c r="M3" s="57"/>
       <c r="N3" s="57"/>
@@ -5965,20 +5955,20 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A4" s="55"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="58"/>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="155" t="s">
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="157"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="154"/>
       <c r="L4" s="58"/>
       <c r="M4" s="57"/>
       <c r="N4" s="57"/>
@@ -5987,20 +5977,20 @@
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A5" s="55"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
       <c r="D5" s="58"/>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="149">
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="161">
         <v>44114</v>
       </c>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="151"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="163"/>
       <c r="L5" s="58"/>
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
@@ -6011,18 +6001,18 @@
       <c r="A6" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
       <c r="L6" s="60"/>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
@@ -6032,52 +6022,52 @@
     <row r="7" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="62"/>
       <c r="B7" s="63"/>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148" t="s">
+      <c r="D7" s="160"/>
+      <c r="E7" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148" t="s">
+      <c r="F7" s="160"/>
+      <c r="G7" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148" t="s">
+      <c r="H7" s="160"/>
+      <c r="I7" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148" t="s">
+      <c r="J7" s="160"/>
+      <c r="K7" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="148"/>
-      <c r="M7" s="143" t="s">
+      <c r="L7" s="160"/>
+      <c r="M7" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="143"/>
-      <c r="O7" s="144" t="s">
+      <c r="N7" s="157"/>
+      <c r="O7" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="144"/>
+      <c r="P7" s="158"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A8" s="64"/>
       <c r="B8" s="65"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="158"/>
     </row>
     <row r="9" spans="1:16" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="66" t="s">
@@ -6798,13 +6788,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="B5:C5"/>
@@ -6816,6 +6799,13 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -6827,7 +6817,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A20" sqref="A20:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -6852,13 +6842,13 @@
       <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -6867,13 +6857,13 @@
       <c r="A2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -6959,64 +6949,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="162" t="s">
+      <c r="G7" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162" t="s">
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162" t="s">
+      <c r="A8" s="166"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162" t="s">
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
       <c r="G9" s="100" t="s">
         <v>54</v>
       </c>
@@ -7035,24 +7025,24 @@
       <c r="L9" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="162"/>
+      <c r="M9" s="166"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="167"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A11" s="102" t="s">
@@ -7072,7 +7062,7 @@
       <c r="G11" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="138">
+      <c r="H11" s="136">
         <v>45752</v>
       </c>
       <c r="I11" s="107" t="s">
@@ -7081,7 +7071,7 @@
       <c r="J11" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="136">
         <v>45843</v>
       </c>
       <c r="L11" s="107" t="s">
@@ -7107,7 +7097,7 @@
       <c r="G12" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="138">
+      <c r="H12" s="136">
         <v>45752</v>
       </c>
       <c r="I12" s="107" t="s">
@@ -7116,7 +7106,7 @@
       <c r="J12" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="136">
         <v>45843</v>
       </c>
       <c r="L12" s="107" t="s">
@@ -7142,7 +7132,7 @@
       <c r="G13" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="138">
+      <c r="H13" s="136">
         <v>45752</v>
       </c>
       <c r="I13" s="107" t="s">
@@ -7151,7 +7141,7 @@
       <c r="J13" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="136">
         <v>45843</v>
       </c>
       <c r="L13" s="107" t="s">
@@ -7177,7 +7167,7 @@
       <c r="G14" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="138">
+      <c r="H14" s="136">
         <v>45752</v>
       </c>
       <c r="I14" s="107" t="s">
@@ -7186,7 +7176,7 @@
       <c r="J14" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="138">
+      <c r="K14" s="136">
         <v>45843</v>
       </c>
       <c r="L14" s="107" t="s">
@@ -7212,7 +7202,7 @@
       <c r="G15" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="138">
+      <c r="H15" s="136">
         <v>45752</v>
       </c>
       <c r="I15" s="107" t="s">
@@ -7221,7 +7211,7 @@
       <c r="J15" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="138">
+      <c r="K15" s="136">
         <v>45843</v>
       </c>
       <c r="L15" s="107" t="s">
@@ -7230,21 +7220,21 @@
       <c r="M15" s="104"/>
     </row>
     <row r="16" spans="1:13" s="31" customFormat="1">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
     </row>
     <row r="17" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A17" s="108" t="s">
@@ -7266,7 +7256,7 @@
       <c r="G17" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="138">
+      <c r="H17" s="136">
         <v>45752</v>
       </c>
       <c r="I17" s="107" t="s">
@@ -7275,7 +7265,7 @@
       <c r="J17" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="138">
+      <c r="K17" s="136">
         <v>45843</v>
       </c>
       <c r="L17" s="107" t="s">
@@ -7305,7 +7295,7 @@
       <c r="G18" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="138">
+      <c r="H18" s="136">
         <v>45752</v>
       </c>
       <c r="I18" s="107" t="s">
@@ -7314,7 +7304,7 @@
       <c r="J18" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="138">
+      <c r="K18" s="136">
         <v>45843</v>
       </c>
       <c r="L18" s="107" t="s">
@@ -7344,7 +7334,7 @@
       <c r="G19" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="138">
+      <c r="H19" s="136">
         <v>45752</v>
       </c>
       <c r="I19" s="107" t="s">
@@ -7353,7 +7343,7 @@
       <c r="J19" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="138">
+      <c r="K19" s="136">
         <v>45843</v>
       </c>
       <c r="L19" s="107" t="s">
@@ -7362,7 +7352,7 @@
       <c r="M19" s="104"/>
     </row>
     <row r="20" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="175" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="94" t="s">
@@ -7383,7 +7373,7 @@
       <c r="G20" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="136">
         <v>45752</v>
       </c>
       <c r="I20" s="107" t="s">
@@ -7392,7 +7382,7 @@
       <c r="J20" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="138">
+      <c r="K20" s="136">
         <v>45843</v>
       </c>
       <c r="L20" s="107" t="s">
@@ -7401,7 +7391,7 @@
       <c r="M20" s="104"/>
     </row>
     <row r="21" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="175" t="s">
         <v>147</v>
       </c>
       <c r="B21" s="94" t="s">
@@ -7422,7 +7412,7 @@
       <c r="G21" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="138">
+      <c r="H21" s="136">
         <v>45752</v>
       </c>
       <c r="I21" s="107" t="s">
@@ -7431,7 +7421,7 @@
       <c r="J21" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="138">
+      <c r="K21" s="136">
         <v>45843</v>
       </c>
       <c r="L21" s="107" t="s">
@@ -7440,7 +7430,7 @@
       <c r="M21" s="104"/>
     </row>
     <row r="22" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="175" t="s">
         <v>152</v>
       </c>
       <c r="B22" s="94" t="s">
@@ -7461,7 +7451,7 @@
       <c r="G22" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="138">
+      <c r="H22" s="136">
         <v>45752</v>
       </c>
       <c r="I22" s="107" t="s">
@@ -7470,7 +7460,7 @@
       <c r="J22" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="138">
+      <c r="K22" s="136">
         <v>45843</v>
       </c>
       <c r="L22" s="107" t="s">
@@ -7479,7 +7469,7 @@
       <c r="M22" s="104"/>
     </row>
     <row r="23" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="175" t="s">
         <v>155</v>
       </c>
       <c r="B23" s="94" t="s">
@@ -7500,7 +7490,7 @@
       <c r="G23" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="138">
+      <c r="H23" s="136">
         <v>45752</v>
       </c>
       <c r="I23" s="107" t="s">
@@ -7509,7 +7499,7 @@
       <c r="J23" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="138">
+      <c r="K23" s="136">
         <v>45843</v>
       </c>
       <c r="L23" s="107" t="s">
@@ -7518,7 +7508,7 @@
       <c r="M23" s="104"/>
     </row>
     <row r="24" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="175" t="s">
         <v>158</v>
       </c>
       <c r="B24" s="94" t="s">
@@ -7539,7 +7529,7 @@
       <c r="G24" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="138">
+      <c r="H24" s="136">
         <v>45752</v>
       </c>
       <c r="I24" s="107" t="s">
@@ -7548,7 +7538,7 @@
       <c r="J24" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="138">
+      <c r="K24" s="136">
         <v>45843</v>
       </c>
       <c r="L24" s="107" t="s">
@@ -7557,7 +7547,7 @@
       <c r="M24" s="104"/>
     </row>
     <row r="25" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="175" t="s">
         <v>161</v>
       </c>
       <c r="B25" s="94" t="s">
@@ -7578,7 +7568,7 @@
       <c r="G25" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="138">
+      <c r="H25" s="136">
         <v>45752</v>
       </c>
       <c r="I25" s="107" t="s">
@@ -7587,7 +7577,7 @@
       <c r="J25" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K25" s="138">
+      <c r="K25" s="136">
         <v>45843</v>
       </c>
       <c r="L25" s="107" t="s">
@@ -7596,7 +7586,7 @@
       <c r="M25" s="104"/>
     </row>
     <row r="26" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="175" t="s">
         <v>164</v>
       </c>
       <c r="B26" s="94" t="s">
@@ -7617,7 +7607,7 @@
       <c r="G26" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="138">
+      <c r="H26" s="136">
         <v>45752</v>
       </c>
       <c r="I26" s="107" t="s">
@@ -7626,16 +7616,16 @@
       <c r="J26" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="138">
+      <c r="K26" s="136">
         <v>45843</v>
       </c>
       <c r="L26" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M26" s="111"/>
+      <c r="M26" s="110"/>
     </row>
     <row r="27" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="175" t="s">
         <v>167</v>
       </c>
       <c r="B27" s="94" t="s">
@@ -7656,7 +7646,7 @@
       <c r="G27" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="138">
+      <c r="H27" s="136">
         <v>45752</v>
       </c>
       <c r="I27" s="107" t="s">
@@ -7665,16 +7655,16 @@
       <c r="J27" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="138">
+      <c r="K27" s="136">
         <v>45843</v>
       </c>
       <c r="L27" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="111"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="175" t="s">
         <v>170</v>
       </c>
       <c r="B28" s="94" t="s">
@@ -7695,7 +7685,7 @@
       <c r="G28" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="138">
+      <c r="H28" s="136">
         <v>45752</v>
       </c>
       <c r="I28" s="107" t="s">
@@ -7704,16 +7694,16 @@
       <c r="J28" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="138">
+      <c r="K28" s="136">
         <v>45843</v>
       </c>
       <c r="L28" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M28" s="111"/>
+      <c r="M28" s="110"/>
     </row>
     <row r="29" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="175" t="s">
         <v>172</v>
       </c>
       <c r="B29" s="94" t="s">
@@ -7734,7 +7724,7 @@
       <c r="G29" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="138">
+      <c r="H29" s="136">
         <v>45752</v>
       </c>
       <c r="I29" s="107" t="s">
@@ -7743,16 +7733,16 @@
       <c r="J29" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="138">
+      <c r="K29" s="136">
         <v>45843</v>
       </c>
       <c r="L29" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="111"/>
+      <c r="M29" s="110"/>
     </row>
     <row r="30" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="175" t="s">
         <v>175</v>
       </c>
       <c r="B30" s="94" t="s">
@@ -7773,7 +7763,7 @@
       <c r="G30" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="138">
+      <c r="H30" s="136">
         <v>45752</v>
       </c>
       <c r="I30" s="107" t="s">
@@ -7782,16 +7772,16 @@
       <c r="J30" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="138">
+      <c r="K30" s="136">
         <v>45843</v>
       </c>
       <c r="L30" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="111"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="175" t="s">
         <v>179</v>
       </c>
       <c r="B31" s="94" t="s">
@@ -7812,7 +7802,7 @@
       <c r="G31" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="138">
+      <c r="H31" s="136">
         <v>45752</v>
       </c>
       <c r="I31" s="107" t="s">
@@ -7821,16 +7811,16 @@
       <c r="J31" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K31" s="138">
+      <c r="K31" s="136">
         <v>45843</v>
       </c>
       <c r="L31" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="111"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="175" t="s">
         <v>183</v>
       </c>
       <c r="B32" s="94" t="s">
@@ -7851,7 +7841,7 @@
       <c r="G32" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="138">
+      <c r="H32" s="136">
         <v>45752</v>
       </c>
       <c r="I32" s="107" t="s">
@@ -7860,16 +7850,16 @@
       <c r="J32" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K32" s="138">
+      <c r="K32" s="136">
         <v>45843</v>
       </c>
       <c r="L32" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M32" s="111"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="175" t="s">
         <v>186</v>
       </c>
       <c r="B33" s="94" t="s">
@@ -7890,7 +7880,7 @@
       <c r="G33" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="138">
+      <c r="H33" s="136">
         <v>45752</v>
       </c>
       <c r="I33" s="107" t="s">
@@ -7899,16 +7889,16 @@
       <c r="J33" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K33" s="138">
+      <c r="K33" s="136">
         <v>45843</v>
       </c>
       <c r="L33" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M33" s="111"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="175" t="s">
         <v>189</v>
       </c>
       <c r="B34" s="94" t="s">
@@ -7929,7 +7919,7 @@
       <c r="G34" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="138">
+      <c r="H34" s="136">
         <v>45752</v>
       </c>
       <c r="I34" s="107" t="s">
@@ -7938,16 +7928,16 @@
       <c r="J34" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K34" s="138">
+      <c r="K34" s="136">
         <v>45843</v>
       </c>
       <c r="L34" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M34" s="111"/>
+      <c r="M34" s="110"/>
     </row>
     <row r="35" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="175" t="s">
         <v>192</v>
       </c>
       <c r="B35" s="94" t="s">
@@ -7968,7 +7958,7 @@
       <c r="G35" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="138">
+      <c r="H35" s="136">
         <v>45752</v>
       </c>
       <c r="I35" s="107" t="s">
@@ -7977,16 +7967,16 @@
       <c r="J35" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K35" s="138">
+      <c r="K35" s="136">
         <v>45843</v>
       </c>
       <c r="L35" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M35" s="111"/>
+      <c r="M35" s="110"/>
     </row>
     <row r="36" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="175" t="s">
         <v>195</v>
       </c>
       <c r="B36" s="94" t="s">
@@ -8007,7 +7997,7 @@
       <c r="G36" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="138">
+      <c r="H36" s="136">
         <v>45752</v>
       </c>
       <c r="I36" s="107" t="s">
@@ -8016,16 +8006,16 @@
       <c r="J36" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="138">
+      <c r="K36" s="136">
         <v>45843</v>
       </c>
       <c r="L36" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M36" s="111"/>
+      <c r="M36" s="110"/>
     </row>
     <row r="37" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="175" t="s">
         <v>198</v>
       </c>
       <c r="B37" s="94" t="s">
@@ -8046,7 +8036,7 @@
       <c r="G37" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="138">
+      <c r="H37" s="136">
         <v>45752</v>
       </c>
       <c r="I37" s="107" t="s">
@@ -8055,16 +8045,16 @@
       <c r="J37" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K37" s="138">
+      <c r="K37" s="136">
         <v>45843</v>
       </c>
       <c r="L37" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M37" s="111"/>
+      <c r="M37" s="110"/>
     </row>
     <row r="38" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A38" s="112" t="s">
+      <c r="A38" s="175" t="s">
         <v>201</v>
       </c>
       <c r="B38" s="94" t="s">
@@ -8085,7 +8075,7 @@
       <c r="G38" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H38" s="138">
+      <c r="H38" s="136">
         <v>45752</v>
       </c>
       <c r="I38" s="107" t="s">
@@ -8094,37 +8084,37 @@
       <c r="J38" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K38" s="138">
+      <c r="K38" s="136">
         <v>45843</v>
       </c>
       <c r="L38" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M38" s="111"/>
-    </row>
-    <row r="39" spans="1:13" s="115" customFormat="1" ht="100.8">
-      <c r="A39" s="112" t="s">
+      <c r="M38" s="110"/>
+    </row>
+    <row r="39" spans="1:13" s="113" customFormat="1" ht="100.8">
+      <c r="A39" s="175" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="113" t="s">
+      <c r="C39" s="111" t="s">
         <v>206</v>
       </c>
       <c r="D39" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="F39" s="113" t="s">
+      <c r="F39" s="111" t="s">
         <v>208</v>
       </c>
       <c r="G39" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H39" s="138">
+      <c r="H39" s="136">
         <v>45752</v>
       </c>
       <c r="I39" s="107" t="s">
@@ -8133,37 +8123,37 @@
       <c r="J39" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="138">
+      <c r="K39" s="136">
         <v>45843</v>
       </c>
       <c r="L39" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M39" s="114"/>
-    </row>
-    <row r="40" spans="1:13" s="115" customFormat="1" ht="81.599999999999994" customHeight="1">
-      <c r="A40" s="112" t="s">
+      <c r="M39" s="112"/>
+    </row>
+    <row r="40" spans="1:13" s="113" customFormat="1" ht="81.599999999999994" customHeight="1">
+      <c r="A40" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="C40" s="113" t="s">
+      <c r="C40" s="111" t="s">
         <v>211</v>
       </c>
       <c r="D40" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="F40" s="113" t="s">
+      <c r="F40" s="111" t="s">
         <v>212</v>
       </c>
       <c r="G40" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H40" s="138">
+      <c r="H40" s="136">
         <v>45752</v>
       </c>
       <c r="I40" s="107" t="s">
@@ -8172,37 +8162,37 @@
       <c r="J40" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="138">
+      <c r="K40" s="136">
         <v>45843</v>
       </c>
       <c r="L40" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M40" s="114"/>
-    </row>
-    <row r="41" spans="1:13" s="115" customFormat="1" ht="94.8" customHeight="1">
-      <c r="A41" s="112" t="s">
+      <c r="M40" s="112"/>
+    </row>
+    <row r="41" spans="1:13" s="113" customFormat="1" ht="94.8" customHeight="1">
+      <c r="A41" s="175" t="s">
         <v>213</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="C41" s="113" t="s">
+      <c r="C41" s="111" t="s">
         <v>215</v>
       </c>
       <c r="D41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="F41" s="113" t="s">
+      <c r="F41" s="111" t="s">
         <v>216</v>
       </c>
       <c r="G41" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H41" s="138">
+      <c r="H41" s="136">
         <v>45752</v>
       </c>
       <c r="I41" s="107" t="s">
@@ -8211,37 +8201,37 @@
       <c r="J41" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="138">
+      <c r="K41" s="136">
         <v>45843</v>
       </c>
       <c r="L41" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M41" s="114"/>
-    </row>
-    <row r="42" spans="1:13" s="115" customFormat="1" ht="117.6">
-      <c r="A42" s="112" t="s">
+      <c r="M41" s="112"/>
+    </row>
+    <row r="42" spans="1:13" s="113" customFormat="1" ht="117.6">
+      <c r="A42" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="111" t="s">
         <v>219</v>
       </c>
       <c r="D42" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="113" t="s">
+      <c r="F42" s="111" t="s">
         <v>221</v>
       </c>
       <c r="G42" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H42" s="138">
+      <c r="H42" s="136">
         <v>45752</v>
       </c>
       <c r="I42" s="107" t="s">
@@ -8250,22 +8240,22 @@
       <c r="J42" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="138">
+      <c r="K42" s="136">
         <v>45843</v>
       </c>
       <c r="L42" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M42" s="114"/>
-    </row>
-    <row r="43" spans="1:13" s="115" customFormat="1" ht="82.8" customHeight="1">
-      <c r="A43" s="112" t="s">
+      <c r="M42" s="112"/>
+    </row>
+    <row r="43" spans="1:13" s="113" customFormat="1" ht="82.8" customHeight="1">
+      <c r="A43" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="113" t="s">
+      <c r="C43" s="111" t="s">
         <v>224</v>
       </c>
       <c r="D43" s="94" t="s">
@@ -8280,7 +8270,7 @@
       <c r="G43" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="138">
+      <c r="H43" s="136">
         <v>45752</v>
       </c>
       <c r="I43" s="107" t="s">
@@ -8289,37 +8279,37 @@
       <c r="J43" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K43" s="138">
+      <c r="K43" s="136">
         <v>45843</v>
       </c>
       <c r="L43" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M43" s="114"/>
-    </row>
-    <row r="44" spans="1:13" s="115" customFormat="1" ht="70.8" customHeight="1">
-      <c r="A44" s="112" t="s">
+      <c r="M43" s="112"/>
+    </row>
+    <row r="44" spans="1:13" s="113" customFormat="1" ht="70.8" customHeight="1">
+      <c r="A44" s="175" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="C44" s="113" t="s">
+      <c r="C44" s="111" t="s">
         <v>227</v>
       </c>
       <c r="D44" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="111" t="s">
         <v>228</v>
       </c>
-      <c r="F44" s="113" t="s">
+      <c r="F44" s="111" t="s">
         <v>228</v>
       </c>
       <c r="G44" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H44" s="138">
+      <c r="H44" s="136">
         <v>45752</v>
       </c>
       <c r="I44" s="107" t="s">
@@ -8328,37 +8318,37 @@
       <c r="J44" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K44" s="138">
+      <c r="K44" s="136">
         <v>45843</v>
       </c>
       <c r="L44" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M44" s="114"/>
-    </row>
-    <row r="45" spans="1:13" s="115" customFormat="1" ht="56.4" customHeight="1">
-      <c r="A45" s="112" t="s">
+      <c r="M44" s="112"/>
+    </row>
+    <row r="45" spans="1:13" s="113" customFormat="1" ht="56.4" customHeight="1">
+      <c r="A45" s="175" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="111" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="113" t="s">
+      <c r="C45" s="111" t="s">
         <v>231</v>
       </c>
       <c r="D45" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="F45" s="113" t="s">
+      <c r="F45" s="111" t="s">
         <v>216</v>
       </c>
       <c r="G45" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="138">
+      <c r="H45" s="136">
         <v>45752</v>
       </c>
       <c r="I45" s="107" t="s">
@@ -8367,104 +8357,97 @@
       <c r="J45" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K45" s="138">
+      <c r="K45" s="136">
         <v>45843</v>
       </c>
       <c r="L45" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M45" s="114"/>
-    </row>
-    <row r="46" spans="1:13" s="115" customFormat="1">
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-    </row>
-    <row r="47" spans="1:13" s="115" customFormat="1">
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
+      <c r="M45" s="112"/>
+    </row>
+    <row r="46" spans="1:13" s="113" customFormat="1">
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+    </row>
+    <row r="47" spans="1:13" s="113" customFormat="1">
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="117"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="117"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="117"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="117"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="117"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="117"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="117"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="117"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="117"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -8473,6 +8456,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G15 J11:J15 J17:J45 G17:G45" xr:uid="{00000000-0002-0000-0B00-000000000000}">
@@ -8496,54 +8486,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="118" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="118" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="118" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" style="118" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46" style="118" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="118"/>
+    <col min="1" max="1" width="21.33203125" style="116" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="116" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="116" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" style="116" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="121" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:13" s="119" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
-      <c r="J1" s="125"/>
-    </row>
-    <row r="2" spans="1:13" s="121" customFormat="1">
-      <c r="A2" s="133" t="s">
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
+      <c r="J1" s="123"/>
+    </row>
+    <row r="2" spans="1:13" s="119" customFormat="1">
+      <c r="A2" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="171" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="126"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="1:13" s="121" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="129"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124"/>
+      <c r="J2" s="123"/>
+    </row>
+    <row r="3" spans="1:13" s="119" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="127"/>
       <c r="B3" s="99" t="s">
         <v>15</v>
       </c>
@@ -8559,128 +8549,128 @@
       <c r="F3" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="126"/>
-      <c r="J3" s="125"/>
-    </row>
-    <row r="4" spans="1:13" s="121" customFormat="1">
-      <c r="A4" s="132" t="s">
+      <c r="G3" s="123"/>
+      <c r="H3" s="124"/>
+      <c r="J3" s="123"/>
+    </row>
+    <row r="4" spans="1:13" s="119" customFormat="1">
+      <c r="A4" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="131">
+      <c r="B4" s="129">
         <v>20</v>
       </c>
-      <c r="C4" s="131">
+      <c r="C4" s="129">
         <v>0</v>
       </c>
-      <c r="D4" s="129">
+      <c r="D4" s="127">
         <f>COUNTIF(G11:G20,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="130">
+      <c r="E4" s="128">
         <f>COUNTIF(G11:G20,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="129">
+      <c r="F4" s="127">
         <v>20</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="J4" s="125"/>
-    </row>
-    <row r="5" spans="1:13" s="121" customFormat="1">
-      <c r="A5" s="132" t="s">
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="J4" s="123"/>
+    </row>
+    <row r="5" spans="1:13" s="119" customFormat="1">
+      <c r="A5" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="131">
+      <c r="B5" s="129">
         <v>20</v>
       </c>
-      <c r="C5" s="131">
+      <c r="C5" s="129">
         <v>0</v>
       </c>
-      <c r="D5" s="129">
+      <c r="D5" s="127">
         <f>COUNTIF(J11:J20,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="128">
         <f>COUNTIF(J11:J20,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="129">
+      <c r="F5" s="127">
         <v>20</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="126"/>
-      <c r="J5" s="125"/>
-    </row>
-    <row r="6" spans="1:13" s="121" customFormat="1" ht="409.2" customHeight="1">
-      <c r="A6" s="128"/>
-      <c r="B6" s="127"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="J6" s="125"/>
-    </row>
-    <row r="7" spans="1:13" s="121" customFormat="1">
-      <c r="A7" s="162" t="s">
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
+      <c r="J5" s="123"/>
+    </row>
+    <row r="6" spans="1:13" s="119" customFormat="1" ht="409.2" customHeight="1">
+      <c r="A6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
+      <c r="J6" s="123"/>
+    </row>
+    <row r="7" spans="1:13" s="119" customFormat="1">
+      <c r="A7" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="162" t="s">
+      <c r="G7" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162" t="s">
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="121" customFormat="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162" t="s">
+    <row r="8" spans="1:13" s="119" customFormat="1">
+      <c r="A8" s="166"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162" t="s">
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-    </row>
-    <row r="9" spans="1:13" s="121" customFormat="1">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+    </row>
+    <row r="9" spans="1:13" s="119" customFormat="1">
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
       <c r="G9" s="100" t="s">
         <v>54</v>
       </c>
@@ -8699,26 +8689,26 @@
       <c r="L9" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="162"/>
-    </row>
-    <row r="10" spans="1:13" s="121" customFormat="1">
-      <c r="A10" s="165" t="s">
+      <c r="M9" s="166"/>
+    </row>
+    <row r="10" spans="1:13" s="119" customFormat="1">
+      <c r="A10" s="167" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-    </row>
-    <row r="11" spans="1:13" s="121" customFormat="1">
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="167"/>
+    </row>
+    <row r="11" spans="1:13" s="119" customFormat="1">
       <c r="A11" s="102" t="s">
         <v>299</v>
       </c>
@@ -8736,7 +8726,7 @@
       <c r="G11" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="138">
+      <c r="H11" s="136">
         <v>45752</v>
       </c>
       <c r="I11" s="107" t="s">
@@ -8745,7 +8735,7 @@
       <c r="J11" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="136">
         <v>45843</v>
       </c>
       <c r="L11" s="107" t="s">
@@ -8753,7 +8743,7 @@
       </c>
       <c r="M11" s="104"/>
     </row>
-    <row r="12" spans="1:13" s="121" customFormat="1" ht="67.2">
+    <row r="12" spans="1:13" s="119" customFormat="1" ht="67.2">
       <c r="A12" s="102" t="s">
         <v>297</v>
       </c>
@@ -8771,7 +8761,7 @@
       <c r="G12" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="138">
+      <c r="H12" s="136">
         <v>45752</v>
       </c>
       <c r="I12" s="107" t="s">
@@ -8780,7 +8770,7 @@
       <c r="J12" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="136">
         <v>45843</v>
       </c>
       <c r="L12" s="107" t="s">
@@ -8788,11 +8778,11 @@
       </c>
       <c r="M12" s="104"/>
     </row>
-    <row r="13" spans="1:13" s="121" customFormat="1" ht="100.8">
+    <row r="13" spans="1:13" s="119" customFormat="1" ht="100.8">
       <c r="A13" s="102" t="s">
         <v>294</v>
       </c>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="122" t="s">
         <v>293</v>
       </c>
       <c r="C13" s="104"/>
@@ -8806,7 +8796,7 @@
       <c r="G13" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="138">
+      <c r="H13" s="136">
         <v>45752</v>
       </c>
       <c r="I13" s="107" t="s">
@@ -8815,7 +8805,7 @@
       <c r="J13" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="136">
         <v>45843</v>
       </c>
       <c r="L13" s="107" t="s">
@@ -8823,7 +8813,7 @@
       </c>
       <c r="M13" s="104"/>
     </row>
-    <row r="14" spans="1:13" s="121" customFormat="1" ht="67.2">
+    <row r="14" spans="1:13" s="119" customFormat="1" ht="67.2">
       <c r="A14" s="102" t="s">
         <v>291</v>
       </c>
@@ -8841,7 +8831,7 @@
       <c r="G14" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="138">
+      <c r="H14" s="136">
         <v>45752</v>
       </c>
       <c r="I14" s="107" t="s">
@@ -8850,7 +8840,7 @@
       <c r="J14" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="138">
+      <c r="K14" s="136">
         <v>45843</v>
       </c>
       <c r="L14" s="107" t="s">
@@ -8858,7 +8848,7 @@
       </c>
       <c r="M14" s="104"/>
     </row>
-    <row r="15" spans="1:13" s="121" customFormat="1" ht="67.2">
+    <row r="15" spans="1:13" s="119" customFormat="1" ht="67.2">
       <c r="A15" s="102" t="s">
         <v>288</v>
       </c>
@@ -8876,7 +8866,7 @@
       <c r="G15" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="138">
+      <c r="H15" s="136">
         <v>45752</v>
       </c>
       <c r="I15" s="107" t="s">
@@ -8885,7 +8875,7 @@
       <c r="J15" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="138">
+      <c r="K15" s="136">
         <v>45843</v>
       </c>
       <c r="L15" s="107" t="s">
@@ -8893,44 +8883,44 @@
       </c>
       <c r="M15" s="104"/>
     </row>
-    <row r="16" spans="1:13" s="121" customFormat="1">
-      <c r="A16" s="163" t="s">
+    <row r="16" spans="1:13" s="119" customFormat="1">
+      <c r="A16" s="164" t="s">
         <v>287</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-    </row>
-    <row r="17" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+    </row>
+    <row r="17" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
       <c r="A17" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="118" t="s">
         <v>284</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120" t="s">
+      <c r="D17" s="118"/>
+      <c r="E17" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="F17" s="120" t="s">
+      <c r="F17" s="118" t="s">
         <v>283</v>
       </c>
       <c r="G17" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="138">
+      <c r="H17" s="136">
         <v>45752</v>
       </c>
       <c r="I17" s="107" t="s">
@@ -8939,37 +8929,37 @@
       <c r="J17" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="138">
+      <c r="K17" s="136">
         <v>45843</v>
       </c>
       <c r="L17" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="122"/>
-    </row>
-    <row r="18" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M17" s="120"/>
+    </row>
+    <row r="18" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
       <c r="A18" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="118" t="s">
         <v>281</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="118" t="s">
         <v>275</v>
       </c>
-      <c r="E18" s="120" t="s">
+      <c r="E18" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="F18" s="120" t="s">
+      <c r="F18" s="118" t="s">
         <v>279</v>
       </c>
       <c r="G18" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="138">
+      <c r="H18" s="136">
         <v>45752</v>
       </c>
       <c r="I18" s="107" t="s">
@@ -8978,37 +8968,37 @@
       <c r="J18" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="138">
+      <c r="K18" s="136">
         <v>45843</v>
       </c>
       <c r="L18" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="122"/>
-    </row>
-    <row r="19" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M18" s="120"/>
+    </row>
+    <row r="19" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
       <c r="A19" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="118" t="s">
         <v>277</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="121" t="s">
         <v>276</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="118" t="s">
         <v>275</v>
       </c>
-      <c r="E19" s="120" t="s">
+      <c r="E19" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="F19" s="120" t="s">
+      <c r="F19" s="118" t="s">
         <v>271</v>
       </c>
       <c r="G19" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="138">
+      <c r="H19" s="136">
         <v>45752</v>
       </c>
       <c r="I19" s="107" t="s">
@@ -9017,37 +9007,37 @@
       <c r="J19" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="138">
+      <c r="K19" s="136">
         <v>45843</v>
       </c>
       <c r="L19" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="122"/>
-    </row>
-    <row r="20" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M19" s="120"/>
+    </row>
+    <row r="20" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A20" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="118" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="120" t="s">
+      <c r="D20" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="120" t="s">
+      <c r="E20" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="F20" s="120" t="s">
+      <c r="F20" s="118" t="s">
         <v>271</v>
       </c>
       <c r="G20" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="136">
         <v>45752</v>
       </c>
       <c r="I20" s="107" t="s">
@@ -9056,37 +9046,37 @@
       <c r="J20" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="138">
+      <c r="K20" s="136">
         <v>45843</v>
       </c>
       <c r="L20" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="122"/>
-    </row>
-    <row r="21" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M20" s="120"/>
+    </row>
+    <row r="21" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A21" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="118" t="s">
         <v>269</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="120" t="s">
+      <c r="D21" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="120" t="s">
+      <c r="E21" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="120" t="s">
+      <c r="F21" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G21" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="138">
+      <c r="H21" s="136">
         <v>45752</v>
       </c>
       <c r="I21" s="107" t="s">
@@ -9095,37 +9085,37 @@
       <c r="J21" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="138">
+      <c r="K21" s="136">
         <v>45843</v>
       </c>
       <c r="L21" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="122"/>
-    </row>
-    <row r="22" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M21" s="120"/>
+    </row>
+    <row r="22" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A22" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="120" t="s">
+      <c r="C22" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="E22" s="120" t="s">
+      <c r="E22" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F22" s="120" t="s">
+      <c r="F22" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G22" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="138">
+      <c r="H22" s="136">
         <v>45752</v>
       </c>
       <c r="I22" s="107" t="s">
@@ -9134,37 +9124,37 @@
       <c r="J22" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="138">
+      <c r="K22" s="136">
         <v>45843</v>
       </c>
       <c r="L22" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="122"/>
-    </row>
-    <row r="23" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M22" s="120"/>
+    </row>
+    <row r="23" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A23" s="108" t="s">
         <v>264</v>
       </c>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="118" t="s">
         <v>263</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="E23" s="120" t="s">
+      <c r="E23" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F23" s="120" t="s">
+      <c r="F23" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G23" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="138">
+      <c r="H23" s="136">
         <v>45752</v>
       </c>
       <c r="I23" s="107" t="s">
@@ -9173,37 +9163,37 @@
       <c r="J23" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="138">
+      <c r="K23" s="136">
         <v>45843</v>
       </c>
       <c r="L23" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="122"/>
-    </row>
-    <row r="24" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M23" s="120"/>
+    </row>
+    <row r="24" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A24" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="118" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="120" t="s">
+      <c r="C24" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="E24" s="120" t="s">
+      <c r="E24" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F24" s="120" t="s">
+      <c r="F24" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G24" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="138">
+      <c r="H24" s="136">
         <v>45752</v>
       </c>
       <c r="I24" s="107" t="s">
@@ -9212,37 +9202,37 @@
       <c r="J24" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="138">
+      <c r="K24" s="136">
         <v>45843</v>
       </c>
       <c r="L24" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M24" s="122"/>
-    </row>
-    <row r="25" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M24" s="120"/>
+    </row>
+    <row r="25" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A25" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="118" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="E25" s="120" t="s">
+      <c r="E25" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F25" s="120" t="s">
+      <c r="F25" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G25" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="138">
+      <c r="H25" s="136">
         <v>45752</v>
       </c>
       <c r="I25" s="107" t="s">
@@ -9251,37 +9241,37 @@
       <c r="J25" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K25" s="138">
+      <c r="K25" s="136">
         <v>45843</v>
       </c>
       <c r="L25" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M25" s="122"/>
+      <c r="M25" s="120"/>
     </row>
     <row r="26" spans="1:13" ht="117.6">
       <c r="A26" s="108" t="s">
         <v>255</v>
       </c>
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="120" t="s">
+      <c r="C26" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="E26" s="120" t="s">
+      <c r="E26" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F26" s="120" t="s">
+      <c r="F26" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G26" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="138">
+      <c r="H26" s="136">
         <v>45752</v>
       </c>
       <c r="I26" s="107" t="s">
@@ -9290,37 +9280,37 @@
       <c r="J26" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="138">
+      <c r="K26" s="136">
         <v>45843</v>
       </c>
       <c r="L26" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M26" s="114"/>
+      <c r="M26" s="112"/>
     </row>
     <row r="27" spans="1:13" ht="117.6">
       <c r="A27" s="108" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="118" t="s">
         <v>250</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="E27" s="120" t="s">
+      <c r="E27" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F27" s="120" t="s">
+      <c r="F27" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G27" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="138">
+      <c r="H27" s="136">
         <v>45752</v>
       </c>
       <c r="I27" s="107" t="s">
@@ -9329,37 +9319,37 @@
       <c r="J27" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="138">
+      <c r="K27" s="136">
         <v>45843</v>
       </c>
       <c r="L27" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="114"/>
+      <c r="M27" s="112"/>
     </row>
     <row r="28" spans="1:13" ht="117.6">
       <c r="A28" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="118" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="E28" s="120" t="s">
+      <c r="E28" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="120" t="s">
+      <c r="F28" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G28" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="138">
+      <c r="H28" s="136">
         <v>45752</v>
       </c>
       <c r="I28" s="107" t="s">
@@ -9368,37 +9358,37 @@
       <c r="J28" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="138">
+      <c r="K28" s="136">
         <v>45843</v>
       </c>
       <c r="L28" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M28" s="114"/>
-    </row>
-    <row r="29" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M28" s="112"/>
+    </row>
+    <row r="29" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1">
       <c r="A29" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="118" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="113" t="s">
+      <c r="F29" s="111" t="s">
         <v>241</v>
       </c>
       <c r="G29" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="138">
+      <c r="H29" s="136">
         <v>45752</v>
       </c>
       <c r="I29" s="107" t="s">
@@ -9407,37 +9397,37 @@
       <c r="J29" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="138">
+      <c r="K29" s="136">
         <v>45843</v>
       </c>
       <c r="L29" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="113"/>
-    </row>
-    <row r="30" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M29" s="111"/>
+    </row>
+    <row r="30" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1">
       <c r="A30" s="108" t="s">
         <v>240</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="111" t="s">
         <v>238</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="113" t="s">
+      <c r="F30" s="111" t="s">
         <v>237</v>
       </c>
       <c r="G30" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="138">
+      <c r="H30" s="136">
         <v>45752</v>
       </c>
       <c r="I30" s="107" t="s">
@@ -9446,37 +9436,37 @@
       <c r="J30" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="138">
+      <c r="K30" s="136">
         <v>45843</v>
       </c>
       <c r="L30" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="113"/>
-    </row>
-    <row r="31" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M30" s="111"/>
+    </row>
+    <row r="31" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1">
       <c r="A31" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="111" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="F31" s="113" t="s">
+      <c r="F31" s="111" t="s">
         <v>232</v>
       </c>
       <c r="G31" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="138">
+      <c r="H31" s="136">
         <v>45752</v>
       </c>
       <c r="I31" s="107" t="s">
@@ -9485,15 +9475,1059 @@
       <c r="J31" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K31" s="138">
+      <c r="K31" s="136">
         <v>45843</v>
       </c>
       <c r="L31" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="113"/>
-    </row>
-    <row r="32" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1"/>
+      <c r="M31" s="111"/>
+    </row>
+    <row r="32" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1"/>
+    <row r="33" ht="103.8" customHeight="1"/>
+    <row r="34" ht="103.8" customHeight="1"/>
+    <row r="35" ht="103.8" customHeight="1"/>
+    <row r="36" ht="103.8" customHeight="1"/>
+    <row r="37" ht="103.8" customHeight="1"/>
+    <row r="38" ht="103.8" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G15 J11:J15 G17:G31 J17:J31" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>"Passed,Untested,Failed,Blocked"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" style="116" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="116" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="116" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" style="116" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="116"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="119" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="170" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
+      <c r="J1" s="123"/>
+    </row>
+    <row r="2" spans="1:13" s="119" customFormat="1">
+      <c r="A2" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="171" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124"/>
+      <c r="J2" s="123"/>
+    </row>
+    <row r="3" spans="1:13" s="119" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="127"/>
+      <c r="B3" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="123"/>
+      <c r="H3" s="124"/>
+      <c r="J3" s="123"/>
+    </row>
+    <row r="4" spans="1:13" s="119" customFormat="1">
+      <c r="A4" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="129">
+        <v>20</v>
+      </c>
+      <c r="C4" s="129">
+        <v>0</v>
+      </c>
+      <c r="D4" s="127">
+        <f>COUNTIF(G11:G20,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="128">
+        <f>COUNTIF(G11:G20,"Blocked")</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="127">
+        <v>20</v>
+      </c>
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="J4" s="123"/>
+    </row>
+    <row r="5" spans="1:13" s="119" customFormat="1">
+      <c r="A5" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="129">
+        <v>20</v>
+      </c>
+      <c r="C5" s="129">
+        <v>0</v>
+      </c>
+      <c r="D5" s="127">
+        <f>COUNTIF(J11:J20,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="128">
+        <f>COUNTIF(J11:J20,"Blocked")</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="127">
+        <v>20</v>
+      </c>
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
+      <c r="J5" s="123"/>
+    </row>
+    <row r="6" spans="1:13" s="119" customFormat="1" ht="409.2" customHeight="1">
+      <c r="A6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
+      <c r="J6" s="123"/>
+    </row>
+    <row r="7" spans="1:13" s="119" customFormat="1">
+      <c r="A7" s="166" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="166" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="166" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="166" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="166" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="166" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="119" customFormat="1">
+      <c r="A8" s="166"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+    </row>
+    <row r="9" spans="1:13" s="119" customFormat="1">
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="166"/>
+    </row>
+    <row r="10" spans="1:13" s="119" customFormat="1">
+      <c r="A10" s="167" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="167"/>
+    </row>
+    <row r="11" spans="1:13" s="119" customFormat="1">
+      <c r="A11" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I11" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L11" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="104"/>
+    </row>
+    <row r="12" spans="1:13" s="119" customFormat="1" ht="67.2">
+      <c r="A12" s="102" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I12" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L12" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="104"/>
+    </row>
+    <row r="13" spans="1:13" s="119" customFormat="1" ht="100.8">
+      <c r="A13" s="102" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="122" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I13" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L13" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="104"/>
+    </row>
+    <row r="14" spans="1:13" s="119" customFormat="1" ht="67.2">
+      <c r="A14" s="102" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I14" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L14" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="104"/>
+    </row>
+    <row r="15" spans="1:13" s="119" customFormat="1" ht="67.2">
+      <c r="A15" s="102" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I15" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L15" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="104"/>
+    </row>
+    <row r="16" spans="1:13" s="119" customFormat="1">
+      <c r="A16" s="164" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+    </row>
+    <row r="17" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
+      <c r="A17" s="108" t="s">
+        <v>338</v>
+      </c>
+      <c r="B17" s="118" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="118" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="118" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I17" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L17" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="120"/>
+    </row>
+    <row r="18" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
+      <c r="A18" s="108" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="118" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I18" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L18" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="120"/>
+    </row>
+    <row r="19" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
+      <c r="A19" s="108" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="118" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="121" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="118" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" s="118" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" s="118" t="s">
+        <v>353</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I19" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L19" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="120"/>
+    </row>
+    <row r="20" spans="1:13" s="119" customFormat="1" ht="117.6">
+      <c r="A20" s="108" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="118" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="118" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="118" t="s">
+        <v>353</v>
+      </c>
+      <c r="F20" s="118" t="s">
+        <v>353</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I20" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L20" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="120"/>
+    </row>
+    <row r="21" spans="1:13" s="119" customFormat="1" ht="117.6">
+      <c r="A21" s="108" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="118" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="118" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L21" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="120"/>
+    </row>
+    <row r="22" spans="1:13" s="119" customFormat="1" ht="117.6">
+      <c r="A22" s="108" t="s">
+        <v>343</v>
+      </c>
+      <c r="B22" s="118" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="118" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I22" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L22" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="120"/>
+    </row>
+    <row r="23" spans="1:13" s="119" customFormat="1" ht="117.6">
+      <c r="A23" s="108" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" s="118" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="118" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I23" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L23" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="120"/>
+    </row>
+    <row r="24" spans="1:13" s="119" customFormat="1" ht="117.6">
+      <c r="A24" s="108" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="118" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="E24" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I24" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L24" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="120"/>
+    </row>
+    <row r="25" spans="1:13" s="119" customFormat="1" ht="117.6">
+      <c r="A25" s="108" t="s">
+        <v>346</v>
+      </c>
+      <c r="B25" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I25" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L25" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="120"/>
+    </row>
+    <row r="26" spans="1:13" ht="117.6">
+      <c r="A26" s="108" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="118" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="118" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="E26" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I26" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L26" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="112"/>
+    </row>
+    <row r="27" spans="1:13" ht="117.6">
+      <c r="A27" s="108" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" s="118" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I27" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L27" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="112"/>
+    </row>
+    <row r="28" spans="1:13" ht="117.6">
+      <c r="A28" s="108" t="s">
+        <v>349</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I28" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L28" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="112"/>
+    </row>
+    <row r="29" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1">
+      <c r="A29" s="108" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" s="118" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="111" t="s">
+        <v>326</v>
+      </c>
+      <c r="E29" s="111" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="111" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I29" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L29" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="111"/>
+    </row>
+    <row r="30" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1">
+      <c r="A30" s="108" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="111" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>326</v>
+      </c>
+      <c r="E30" s="111" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="111" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I30" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L30" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="111"/>
+    </row>
+    <row r="31" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1">
+      <c r="A31" s="108" t="s">
+        <v>352</v>
+      </c>
+      <c r="B31" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="111" t="s">
+        <v>326</v>
+      </c>
+      <c r="E31" s="111" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="111" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="136">
+        <v>45752</v>
+      </c>
+      <c r="I31" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="136">
+        <v>45843</v>
+      </c>
+      <c r="L31" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="111"/>
+    </row>
+    <row r="32" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1"/>
     <row r="33" ht="103.8" customHeight="1"/>
     <row r="34" ht="103.8" customHeight="1"/>
     <row r="35" ht="103.8" customHeight="1"/>
@@ -9518,1050 +10552,6 @@
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="A10:M10"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G15 J11:J15 G17:G31 J17:J31" xr:uid="{00000000-0002-0000-0800-000000000000}">
-      <formula1>"Passed,Untested,Failed,Blocked"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:M38"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" style="118" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="118" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="118" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" style="118" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46" style="118" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="118"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="121" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="133" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="166" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
-      <c r="J1" s="125"/>
-    </row>
-    <row r="2" spans="1:13" s="121" customFormat="1">
-      <c r="A2" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="167" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="126"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="1:13" s="121" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="129"/>
-      <c r="B3" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="126"/>
-      <c r="J3" s="125"/>
-    </row>
-    <row r="4" spans="1:13" s="121" customFormat="1">
-      <c r="A4" s="132" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="131">
-        <v>20</v>
-      </c>
-      <c r="C4" s="131">
-        <v>0</v>
-      </c>
-      <c r="D4" s="129">
-        <f>COUNTIF(G11:G20,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="130">
-        <f>COUNTIF(G11:G20,"Blocked")</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="129">
-        <v>20</v>
-      </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="J4" s="125"/>
-    </row>
-    <row r="5" spans="1:13" s="121" customFormat="1">
-      <c r="A5" s="132" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="131">
-        <v>20</v>
-      </c>
-      <c r="C5" s="131">
-        <v>0</v>
-      </c>
-      <c r="D5" s="129">
-        <f>COUNTIF(J11:J20,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="130">
-        <f>COUNTIF(J11:J20,"Blocked")</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="129">
-        <v>20</v>
-      </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="126"/>
-      <c r="J5" s="125"/>
-    </row>
-    <row r="6" spans="1:13" s="121" customFormat="1" ht="409.2" customHeight="1">
-      <c r="A6" s="128"/>
-      <c r="B6" s="127"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="J6" s="125"/>
-    </row>
-    <row r="7" spans="1:13" s="121" customFormat="1">
-      <c r="A7" s="162" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="162" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="162" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="162" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="162" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="162" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="162" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="121" customFormat="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-    </row>
-    <row r="9" spans="1:13" s="121" customFormat="1">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="101" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="101" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="162"/>
-    </row>
-    <row r="10" spans="1:13" s="121" customFormat="1">
-      <c r="A10" s="165" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-    </row>
-    <row r="11" spans="1:13" s="121" customFormat="1">
-      <c r="A11" s="102" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
-        <v>298</v>
-      </c>
-      <c r="F11" s="105" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I11" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L11" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="104"/>
-    </row>
-    <row r="12" spans="1:13" s="121" customFormat="1" ht="67.2">
-      <c r="A12" s="102" t="s">
-        <v>334</v>
-      </c>
-      <c r="B12" s="108" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105" t="s">
-        <v>295</v>
-      </c>
-      <c r="F12" s="105" t="s">
-        <v>295</v>
-      </c>
-      <c r="G12" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I12" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L12" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="104"/>
-    </row>
-    <row r="13" spans="1:13" s="121" customFormat="1" ht="100.8">
-      <c r="A13" s="102" t="s">
-        <v>335</v>
-      </c>
-      <c r="B13" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="105" t="s">
-        <v>292</v>
-      </c>
-      <c r="G13" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I13" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L13" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="104"/>
-    </row>
-    <row r="14" spans="1:13" s="121" customFormat="1" ht="67.2">
-      <c r="A14" s="102" t="s">
-        <v>336</v>
-      </c>
-      <c r="B14" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" s="105" t="s">
-        <v>289</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I14" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L14" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="104"/>
-    </row>
-    <row r="15" spans="1:13" s="121" customFormat="1" ht="67.2">
-      <c r="A15" s="102" t="s">
-        <v>337</v>
-      </c>
-      <c r="B15" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I15" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L15" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="104"/>
-    </row>
-    <row r="16" spans="1:13" s="121" customFormat="1">
-      <c r="A16" s="163" t="s">
-        <v>332</v>
-      </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-    </row>
-    <row r="17" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A17" s="108" t="s">
-        <v>338</v>
-      </c>
-      <c r="B17" s="120" t="s">
-        <v>285</v>
-      </c>
-      <c r="C17" s="120" t="s">
-        <v>284</v>
-      </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120" t="s">
-        <v>283</v>
-      </c>
-      <c r="F17" s="120" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I17" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L17" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="122"/>
-    </row>
-    <row r="18" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A18" s="108" t="s">
-        <v>339</v>
-      </c>
-      <c r="B18" s="120" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="123" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" s="120" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" s="120" t="s">
-        <v>279</v>
-      </c>
-      <c r="F18" s="120" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I18" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L18" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="122"/>
-    </row>
-    <row r="19" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A19" s="108" t="s">
-        <v>340</v>
-      </c>
-      <c r="B19" s="120" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="123" t="s">
-        <v>276</v>
-      </c>
-      <c r="D19" s="120" t="s">
-        <v>312</v>
-      </c>
-      <c r="E19" s="120" t="s">
-        <v>353</v>
-      </c>
-      <c r="F19" s="120" t="s">
-        <v>353</v>
-      </c>
-      <c r="G19" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I19" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L19" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="122"/>
-    </row>
-    <row r="20" spans="1:13" s="121" customFormat="1" ht="117.6">
-      <c r="A20" s="108" t="s">
-        <v>341</v>
-      </c>
-      <c r="B20" s="120" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20" s="120" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="120" t="s">
-        <v>316</v>
-      </c>
-      <c r="E20" s="120" t="s">
-        <v>353</v>
-      </c>
-      <c r="F20" s="120" t="s">
-        <v>353</v>
-      </c>
-      <c r="G20" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I20" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L20" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="122"/>
-    </row>
-    <row r="21" spans="1:13" s="121" customFormat="1" ht="117.6">
-      <c r="A21" s="108" t="s">
-        <v>342</v>
-      </c>
-      <c r="B21" s="120" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="120" t="s">
-        <v>316</v>
-      </c>
-      <c r="E21" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="G21" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I21" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K21" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L21" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="122"/>
-    </row>
-    <row r="22" spans="1:13" s="121" customFormat="1" ht="117.6">
-      <c r="A22" s="108" t="s">
-        <v>343</v>
-      </c>
-      <c r="B22" s="120" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="120" t="s">
-        <v>265</v>
-      </c>
-      <c r="D22" s="120" t="s">
-        <v>316</v>
-      </c>
-      <c r="E22" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I22" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L22" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="122"/>
-    </row>
-    <row r="23" spans="1:13" s="121" customFormat="1" ht="117.6">
-      <c r="A23" s="108" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="120" t="s">
-        <v>263</v>
-      </c>
-      <c r="C23" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="D23" s="120" t="s">
-        <v>316</v>
-      </c>
-      <c r="E23" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="G23" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I23" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L23" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="122"/>
-    </row>
-    <row r="24" spans="1:13" s="121" customFormat="1" ht="117.6">
-      <c r="A24" s="108" t="s">
-        <v>345</v>
-      </c>
-      <c r="B24" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="D24" s="120" t="s">
-        <v>316</v>
-      </c>
-      <c r="E24" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="F24" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I24" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L24" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="122"/>
-    </row>
-    <row r="25" spans="1:13" s="121" customFormat="1" ht="117.6">
-      <c r="A25" s="108" t="s">
-        <v>346</v>
-      </c>
-      <c r="B25" s="120" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="120" t="s">
-        <v>256</v>
-      </c>
-      <c r="D25" s="120" t="s">
-        <v>316</v>
-      </c>
-      <c r="E25" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="G25" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I25" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L25" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="122"/>
-    </row>
-    <row r="26" spans="1:13" ht="117.6">
-      <c r="A26" s="108" t="s">
-        <v>347</v>
-      </c>
-      <c r="B26" s="120" t="s">
-        <v>254</v>
-      </c>
-      <c r="C26" s="120" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="120" t="s">
-        <v>316</v>
-      </c>
-      <c r="E26" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="F26" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I26" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L26" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="114"/>
-    </row>
-    <row r="27" spans="1:13" ht="117.6">
-      <c r="A27" s="108" t="s">
-        <v>348</v>
-      </c>
-      <c r="B27" s="120" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="120" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="120" t="s">
-        <v>316</v>
-      </c>
-      <c r="E27" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="F27" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="G27" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I27" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L27" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="114"/>
-    </row>
-    <row r="28" spans="1:13" ht="117.6">
-      <c r="A28" s="108" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" s="120" t="s">
-        <v>248</v>
-      </c>
-      <c r="C28" s="120" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="120" t="s">
-        <v>316</v>
-      </c>
-      <c r="E28" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="F28" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I28" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L28" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="114"/>
-    </row>
-    <row r="29" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A29" s="108" t="s">
-        <v>350</v>
-      </c>
-      <c r="B29" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="C29" s="113" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="113" t="s">
-        <v>326</v>
-      </c>
-      <c r="E29" s="113" t="s">
-        <v>241</v>
-      </c>
-      <c r="F29" s="113" t="s">
-        <v>241</v>
-      </c>
-      <c r="G29" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I29" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L29" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="113"/>
-    </row>
-    <row r="30" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A30" s="108" t="s">
-        <v>351</v>
-      </c>
-      <c r="B30" s="113" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D30" s="113" t="s">
-        <v>326</v>
-      </c>
-      <c r="E30" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="G30" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I30" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L30" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M30" s="113"/>
-    </row>
-    <row r="31" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A31" s="108" t="s">
-        <v>352</v>
-      </c>
-      <c r="B31" s="113" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="113" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" s="113" t="s">
-        <v>326</v>
-      </c>
-      <c r="E31" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="F31" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="G31" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="138">
-        <v>45752</v>
-      </c>
-      <c r="I31" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" s="138">
-        <v>45843</v>
-      </c>
-      <c r="L31" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="113"/>
-    </row>
-    <row r="32" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1"/>
-    <row r="33" ht="103.8" customHeight="1"/>
-    <row r="34" ht="103.8" customHeight="1"/>
-    <row r="35" ht="103.8" customHeight="1"/>
-    <row r="36" ht="103.8" customHeight="1"/>
-    <row r="37" ht="103.8" customHeight="1"/>
-    <row r="38" ht="103.8" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G15 J11:J15 G17:G31 J17:J31" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
@@ -10584,54 +10574,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="118" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="118" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="118" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" style="118" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46" style="118" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="118"/>
+    <col min="1" max="1" width="21.33203125" style="116" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="116" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="116" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" style="116" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="121" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:13" s="119" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
-      <c r="J1" s="125"/>
-    </row>
-    <row r="2" spans="1:13" s="121" customFormat="1">
-      <c r="A2" s="133" t="s">
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
+      <c r="J1" s="123"/>
+    </row>
+    <row r="2" spans="1:13" s="119" customFormat="1">
+      <c r="A2" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="171" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="126"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="1:13" s="121" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="129"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124"/>
+      <c r="J2" s="123"/>
+    </row>
+    <row r="3" spans="1:13" s="119" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="127"/>
       <c r="B3" s="99" t="s">
         <v>15</v>
       </c>
@@ -10647,128 +10637,128 @@
       <c r="F3" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="126"/>
-      <c r="J3" s="125"/>
-    </row>
-    <row r="4" spans="1:13" s="121" customFormat="1">
-      <c r="A4" s="132" t="s">
+      <c r="G3" s="123"/>
+      <c r="H3" s="124"/>
+      <c r="J3" s="123"/>
+    </row>
+    <row r="4" spans="1:13" s="119" customFormat="1">
+      <c r="A4" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="131">
+      <c r="B4" s="129">
         <v>20</v>
       </c>
-      <c r="C4" s="131">
+      <c r="C4" s="129">
         <v>0</v>
       </c>
-      <c r="D4" s="129">
+      <c r="D4" s="127">
         <f>COUNTIF(G11:G20,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="130">
+      <c r="E4" s="128">
         <f>COUNTIF(G11:G20,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="129">
+      <c r="F4" s="127">
         <v>20</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="J4" s="125"/>
-    </row>
-    <row r="5" spans="1:13" s="121" customFormat="1">
-      <c r="A5" s="132" t="s">
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="J4" s="123"/>
+    </row>
+    <row r="5" spans="1:13" s="119" customFormat="1">
+      <c r="A5" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="131">
+      <c r="B5" s="129">
         <v>20</v>
       </c>
-      <c r="C5" s="131">
+      <c r="C5" s="129">
         <v>0</v>
       </c>
-      <c r="D5" s="129">
+      <c r="D5" s="127">
         <f>COUNTIF(J11:J20,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="128">
         <f>COUNTIF(J11:J20,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="129">
+      <c r="F5" s="127">
         <v>20</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="126"/>
-      <c r="J5" s="125"/>
-    </row>
-    <row r="6" spans="1:13" s="121" customFormat="1" ht="409.2" customHeight="1">
-      <c r="A6" s="128"/>
-      <c r="B6" s="127"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="J6" s="125"/>
-    </row>
-    <row r="7" spans="1:13" s="121" customFormat="1">
-      <c r="A7" s="162" t="s">
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
+      <c r="J5" s="123"/>
+    </row>
+    <row r="6" spans="1:13" s="119" customFormat="1" ht="409.2" customHeight="1">
+      <c r="A6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
+      <c r="J6" s="123"/>
+    </row>
+    <row r="7" spans="1:13" s="119" customFormat="1">
+      <c r="A7" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="162" t="s">
+      <c r="G7" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162" t="s">
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="121" customFormat="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162" t="s">
+    <row r="8" spans="1:13" s="119" customFormat="1">
+      <c r="A8" s="166"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162" t="s">
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-    </row>
-    <row r="9" spans="1:13" s="121" customFormat="1">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+    </row>
+    <row r="9" spans="1:13" s="119" customFormat="1">
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
       <c r="G9" s="100" t="s">
         <v>54</v>
       </c>
@@ -10787,26 +10777,26 @@
       <c r="L9" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="162"/>
-    </row>
-    <row r="10" spans="1:13" s="121" customFormat="1">
-      <c r="A10" s="165" t="s">
+      <c r="M9" s="166"/>
+    </row>
+    <row r="10" spans="1:13" s="119" customFormat="1">
+      <c r="A10" s="167" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-    </row>
-    <row r="11" spans="1:13" s="121" customFormat="1">
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="167"/>
+    </row>
+    <row r="11" spans="1:13" s="119" customFormat="1">
       <c r="A11" s="102" t="s">
         <v>304</v>
       </c>
@@ -10824,7 +10814,7 @@
       <c r="G11" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="138">
+      <c r="H11" s="136">
         <v>45752</v>
       </c>
       <c r="I11" s="107" t="s">
@@ -10833,7 +10823,7 @@
       <c r="J11" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="136">
         <v>45843</v>
       </c>
       <c r="L11" s="107" t="s">
@@ -10841,7 +10831,7 @@
       </c>
       <c r="M11" s="104"/>
     </row>
-    <row r="12" spans="1:13" s="121" customFormat="1" ht="67.2">
+    <row r="12" spans="1:13" s="119" customFormat="1" ht="67.2">
       <c r="A12" s="102" t="s">
         <v>305</v>
       </c>
@@ -10859,7 +10849,7 @@
       <c r="G12" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="138">
+      <c r="H12" s="136">
         <v>45752</v>
       </c>
       <c r="I12" s="107" t="s">
@@ -10868,7 +10858,7 @@
       <c r="J12" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="136">
         <v>45843</v>
       </c>
       <c r="L12" s="107" t="s">
@@ -10876,11 +10866,11 @@
       </c>
       <c r="M12" s="104"/>
     </row>
-    <row r="13" spans="1:13" s="121" customFormat="1" ht="100.8">
+    <row r="13" spans="1:13" s="119" customFormat="1" ht="100.8">
       <c r="A13" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="122" t="s">
         <v>293</v>
       </c>
       <c r="C13" s="104"/>
@@ -10894,7 +10884,7 @@
       <c r="G13" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="138">
+      <c r="H13" s="136">
         <v>45752</v>
       </c>
       <c r="I13" s="107" t="s">
@@ -10903,7 +10893,7 @@
       <c r="J13" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="136">
         <v>45843</v>
       </c>
       <c r="L13" s="107" t="s">
@@ -10911,7 +10901,7 @@
       </c>
       <c r="M13" s="104"/>
     </row>
-    <row r="14" spans="1:13" s="121" customFormat="1" ht="67.2">
+    <row r="14" spans="1:13" s="119" customFormat="1" ht="67.2">
       <c r="A14" s="102" t="s">
         <v>307</v>
       </c>
@@ -10929,7 +10919,7 @@
       <c r="G14" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="138">
+      <c r="H14" s="136">
         <v>45752</v>
       </c>
       <c r="I14" s="107" t="s">
@@ -10938,7 +10928,7 @@
       <c r="J14" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="138">
+      <c r="K14" s="136">
         <v>45843</v>
       </c>
       <c r="L14" s="107" t="s">
@@ -10946,7 +10936,7 @@
       </c>
       <c r="M14" s="104"/>
     </row>
-    <row r="15" spans="1:13" s="121" customFormat="1" ht="67.2">
+    <row r="15" spans="1:13" s="119" customFormat="1" ht="67.2">
       <c r="A15" s="102" t="s">
         <v>308</v>
       </c>
@@ -10964,7 +10954,7 @@
       <c r="G15" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="138">
+      <c r="H15" s="136">
         <v>45752</v>
       </c>
       <c r="I15" s="107" t="s">
@@ -10973,7 +10963,7 @@
       <c r="J15" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="138">
+      <c r="K15" s="136">
         <v>45843</v>
       </c>
       <c r="L15" s="107" t="s">
@@ -10981,44 +10971,44 @@
       </c>
       <c r="M15" s="104"/>
     </row>
-    <row r="16" spans="1:13" s="121" customFormat="1">
-      <c r="A16" s="163" t="s">
+    <row r="16" spans="1:13" s="119" customFormat="1">
+      <c r="A16" s="164" t="s">
         <v>309</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-    </row>
-    <row r="17" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+    </row>
+    <row r="17" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
       <c r="A17" s="108" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="118" t="s">
         <v>284</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120" t="s">
+      <c r="D17" s="118"/>
+      <c r="E17" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="F17" s="120" t="s">
+      <c r="F17" s="118" t="s">
         <v>283</v>
       </c>
       <c r="G17" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="138">
+      <c r="H17" s="136">
         <v>45752</v>
       </c>
       <c r="I17" s="107" t="s">
@@ -11027,37 +11017,37 @@
       <c r="J17" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="138">
+      <c r="K17" s="136">
         <v>45843</v>
       </c>
       <c r="L17" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="122"/>
-    </row>
-    <row r="18" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M17" s="120"/>
+    </row>
+    <row r="18" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
       <c r="A18" s="108" t="s">
         <v>311</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="118" t="s">
         <v>281</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="118" t="s">
         <v>312</v>
       </c>
-      <c r="E18" s="120" t="s">
+      <c r="E18" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="F18" s="120" t="s">
+      <c r="F18" s="118" t="s">
         <v>279</v>
       </c>
       <c r="G18" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="138">
+      <c r="H18" s="136">
         <v>45752</v>
       </c>
       <c r="I18" s="107" t="s">
@@ -11066,37 +11056,37 @@
       <c r="J18" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="138">
+      <c r="K18" s="136">
         <v>45843</v>
       </c>
       <c r="L18" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="122"/>
-    </row>
-    <row r="19" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M18" s="120"/>
+    </row>
+    <row r="19" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
       <c r="A19" s="108" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="118" t="s">
         <v>277</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="121" t="s">
         <v>276</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="118" t="s">
         <v>312</v>
       </c>
-      <c r="E19" s="120" t="s">
+      <c r="E19" s="118" t="s">
         <v>314</v>
       </c>
-      <c r="F19" s="120" t="s">
+      <c r="F19" s="118" t="s">
         <v>314</v>
       </c>
       <c r="G19" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="138">
+      <c r="H19" s="136">
         <v>45752</v>
       </c>
       <c r="I19" s="107" t="s">
@@ -11105,37 +11095,37 @@
       <c r="J19" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="138">
+      <c r="K19" s="136">
         <v>45843</v>
       </c>
       <c r="L19" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="122"/>
-    </row>
-    <row r="20" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M19" s="120"/>
+    </row>
+    <row r="20" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A20" s="108" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="118" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="120" t="s">
+      <c r="D20" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="E20" s="120" t="s">
+      <c r="E20" s="118" t="s">
         <v>314</v>
       </c>
-      <c r="F20" s="120" t="s">
+      <c r="F20" s="118" t="s">
         <v>314</v>
       </c>
       <c r="G20" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="136">
         <v>45752</v>
       </c>
       <c r="I20" s="107" t="s">
@@ -11144,37 +11134,37 @@
       <c r="J20" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="138">
+      <c r="K20" s="136">
         <v>45843</v>
       </c>
       <c r="L20" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="122"/>
-    </row>
-    <row r="21" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M20" s="120"/>
+    </row>
+    <row r="21" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A21" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="118" t="s">
         <v>269</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="120" t="s">
+      <c r="D21" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="120" t="s">
+      <c r="E21" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="120" t="s">
+      <c r="F21" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G21" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="138">
+      <c r="H21" s="136">
         <v>45752</v>
       </c>
       <c r="I21" s="107" t="s">
@@ -11183,37 +11173,37 @@
       <c r="J21" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="138">
+      <c r="K21" s="136">
         <v>45843</v>
       </c>
       <c r="L21" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="122"/>
-    </row>
-    <row r="22" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M21" s="120"/>
+    </row>
+    <row r="22" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A22" s="108" t="s">
         <v>318</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="120" t="s">
+      <c r="C22" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="E22" s="120" t="s">
+      <c r="E22" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F22" s="120" t="s">
+      <c r="F22" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G22" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="138">
+      <c r="H22" s="136">
         <v>45752</v>
       </c>
       <c r="I22" s="107" t="s">
@@ -11222,37 +11212,37 @@
       <c r="J22" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="138">
+      <c r="K22" s="136">
         <v>45843</v>
       </c>
       <c r="L22" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="122"/>
-    </row>
-    <row r="23" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M22" s="120"/>
+    </row>
+    <row r="23" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A23" s="108" t="s">
         <v>319</v>
       </c>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="118" t="s">
         <v>263</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="E23" s="120" t="s">
+      <c r="E23" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F23" s="120" t="s">
+      <c r="F23" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G23" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="138">
+      <c r="H23" s="136">
         <v>45752</v>
       </c>
       <c r="I23" s="107" t="s">
@@ -11261,37 +11251,37 @@
       <c r="J23" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="138">
+      <c r="K23" s="136">
         <v>45843</v>
       </c>
       <c r="L23" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="122"/>
-    </row>
-    <row r="24" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M23" s="120"/>
+    </row>
+    <row r="24" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A24" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="118" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="120" t="s">
+      <c r="C24" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="120" t="s">
+      <c r="E24" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F24" s="120" t="s">
+      <c r="F24" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G24" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="138">
+      <c r="H24" s="136">
         <v>45752</v>
       </c>
       <c r="I24" s="107" t="s">
@@ -11300,37 +11290,37 @@
       <c r="J24" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="138">
+      <c r="K24" s="136">
         <v>45843</v>
       </c>
       <c r="L24" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M24" s="122"/>
-    </row>
-    <row r="25" spans="1:13" s="121" customFormat="1" ht="117.6">
+      <c r="M24" s="120"/>
+    </row>
+    <row r="25" spans="1:13" s="119" customFormat="1" ht="117.6">
       <c r="A25" s="108" t="s">
         <v>321</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="118" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="E25" s="120" t="s">
+      <c r="E25" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F25" s="120" t="s">
+      <c r="F25" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G25" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="138">
+      <c r="H25" s="136">
         <v>45752</v>
       </c>
       <c r="I25" s="107" t="s">
@@ -11339,37 +11329,37 @@
       <c r="J25" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K25" s="138">
+      <c r="K25" s="136">
         <v>45843</v>
       </c>
       <c r="L25" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M25" s="122"/>
+      <c r="M25" s="120"/>
     </row>
     <row r="26" spans="1:13" ht="117.6">
       <c r="A26" s="108" t="s">
         <v>322</v>
       </c>
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="120" t="s">
+      <c r="C26" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="E26" s="120" t="s">
+      <c r="E26" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F26" s="120" t="s">
+      <c r="F26" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G26" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="138">
+      <c r="H26" s="136">
         <v>45752</v>
       </c>
       <c r="I26" s="107" t="s">
@@ -11378,37 +11368,37 @@
       <c r="J26" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="138">
+      <c r="K26" s="136">
         <v>45843</v>
       </c>
       <c r="L26" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M26" s="114"/>
+      <c r="M26" s="112"/>
     </row>
     <row r="27" spans="1:13" ht="117.6">
       <c r="A27" s="108" t="s">
         <v>323</v>
       </c>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="118" t="s">
         <v>250</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="E27" s="120" t="s">
+      <c r="E27" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F27" s="120" t="s">
+      <c r="F27" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G27" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="138">
+      <c r="H27" s="136">
         <v>45752</v>
       </c>
       <c r="I27" s="107" t="s">
@@ -11417,37 +11407,37 @@
       <c r="J27" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="138">
+      <c r="K27" s="136">
         <v>45843</v>
       </c>
       <c r="L27" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="114"/>
+      <c r="M27" s="112"/>
     </row>
     <row r="28" spans="1:13" ht="117.6">
       <c r="A28" s="108" t="s">
         <v>324</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="118" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="E28" s="120" t="s">
+      <c r="E28" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="120" t="s">
+      <c r="F28" s="118" t="s">
         <v>245</v>
       </c>
       <c r="G28" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="138">
+      <c r="H28" s="136">
         <v>45752</v>
       </c>
       <c r="I28" s="107" t="s">
@@ -11456,37 +11446,37 @@
       <c r="J28" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="138">
+      <c r="K28" s="136">
         <v>45843</v>
       </c>
       <c r="L28" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M28" s="114"/>
-    </row>
-    <row r="29" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M28" s="112"/>
+    </row>
+    <row r="29" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1">
       <c r="A29" s="108" t="s">
         <v>325</v>
       </c>
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="118" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="113" t="s">
+      <c r="F29" s="111" t="s">
         <v>241</v>
       </c>
       <c r="G29" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="138">
+      <c r="H29" s="136">
         <v>45752</v>
       </c>
       <c r="I29" s="107" t="s">
@@ -11495,37 +11485,37 @@
       <c r="J29" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="138">
+      <c r="K29" s="136">
         <v>45843</v>
       </c>
       <c r="L29" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="113"/>
-    </row>
-    <row r="30" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M29" s="111"/>
+    </row>
+    <row r="30" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1">
       <c r="A30" s="108" t="s">
         <v>327</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="111" t="s">
         <v>238</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="113" t="s">
+      <c r="F30" s="111" t="s">
         <v>237</v>
       </c>
       <c r="G30" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="138">
+      <c r="H30" s="136">
         <v>45752</v>
       </c>
       <c r="I30" s="107" t="s">
@@ -11534,37 +11524,37 @@
       <c r="J30" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="138">
+      <c r="K30" s="136">
         <v>45843</v>
       </c>
       <c r="L30" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="113"/>
-    </row>
-    <row r="31" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M30" s="111"/>
+    </row>
+    <row r="31" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1">
       <c r="A31" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="111" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="F31" s="113" t="s">
+      <c r="F31" s="111" t="s">
         <v>232</v>
       </c>
       <c r="G31" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="138">
+      <c r="H31" s="136">
         <v>45752</v>
       </c>
       <c r="I31" s="107" t="s">
@@ -11573,15 +11563,15 @@
       <c r="J31" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K31" s="138">
+      <c r="K31" s="136">
         <v>45843</v>
       </c>
       <c r="L31" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="113"/>
-    </row>
-    <row r="32" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1"/>
+      <c r="M31" s="111"/>
+    </row>
+    <row r="32" spans="1:13" s="117" customFormat="1" ht="103.8" customHeight="1"/>
     <row r="33" ht="103.8" customHeight="1"/>
     <row r="34" ht="103.8" customHeight="1"/>
     <row r="35" ht="103.8" customHeight="1"/>
@@ -11590,13 +11580,6 @@
     <row r="38" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -11605,6 +11588,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G15 J11:J15 G17:G31 J17:J31" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -11623,7 +11613,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -11649,13 +11639,13 @@
       <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -11664,13 +11654,13 @@
       <c r="A2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -11756,64 +11746,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="168" t="s">
+      <c r="G7" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168" t="s">
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168" t="s">
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168" t="s">
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="168"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="46" t="s">
         <v>54</v>
       </c>
@@ -11832,24 +11822,24 @@
       <c r="L9" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="168"/>
+      <c r="M9" s="173"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="67.2">
       <c r="A11" s="48" t="s">
@@ -11869,7 +11859,7 @@
       <c r="G11" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="138">
+      <c r="H11" s="136">
         <v>45782</v>
       </c>
       <c r="I11" s="52" t="s">
@@ -11878,7 +11868,7 @@
       <c r="J11" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="136">
         <v>45843</v>
       </c>
       <c r="L11" s="52" t="s">
@@ -11904,7 +11894,7 @@
       <c r="G12" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="138">
+      <c r="H12" s="136">
         <v>45782</v>
       </c>
       <c r="I12" s="52" t="s">
@@ -11913,7 +11903,7 @@
       <c r="J12" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="136">
         <v>45843</v>
       </c>
       <c r="L12" s="52" t="s">
@@ -11939,7 +11929,7 @@
       <c r="G13" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="138">
+      <c r="H13" s="136">
         <v>45782</v>
       </c>
       <c r="I13" s="52" t="s">
@@ -11948,7 +11938,7 @@
       <c r="J13" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="136">
         <v>45843</v>
       </c>
       <c r="L13" s="52" t="s">
@@ -11974,7 +11964,7 @@
       <c r="G14" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="138">
+      <c r="H14" s="136">
         <v>45782</v>
       </c>
       <c r="I14" s="52" t="s">
@@ -11983,7 +11973,7 @@
       <c r="J14" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="138">
+      <c r="K14" s="136">
         <v>45843</v>
       </c>
       <c r="L14" s="52" t="s">
@@ -12009,7 +11999,7 @@
       <c r="G15" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="138">
+      <c r="H15" s="136">
         <v>45782</v>
       </c>
       <c r="I15" s="52" t="s">
@@ -12018,7 +12008,7 @@
       <c r="J15" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="138">
+      <c r="K15" s="136">
         <v>45843</v>
       </c>
       <c r="L15" s="52" t="s">
@@ -12044,7 +12034,7 @@
       <c r="G16" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="138">
+      <c r="H16" s="136">
         <v>45782</v>
       </c>
       <c r="I16" s="52" t="s">
@@ -12053,7 +12043,7 @@
       <c r="J16" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="138">
+      <c r="K16" s="136">
         <v>45843</v>
       </c>
       <c r="L16" s="52" t="s">
@@ -12062,21 +12052,21 @@
       <c r="M16" s="85"/>
     </row>
     <row r="17" spans="1:13" s="31" customFormat="1">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="169"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
     </row>
     <row r="18" spans="1:13" s="31" customFormat="1" ht="151.19999999999999">
       <c r="A18" s="49" t="s">
@@ -12098,7 +12088,7 @@
       <c r="G18" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="138">
+      <c r="H18" s="136">
         <v>45782</v>
       </c>
       <c r="I18" s="52" t="s">
@@ -12107,7 +12097,7 @@
       <c r="J18" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="138">
+      <c r="K18" s="136">
         <v>45843</v>
       </c>
       <c r="L18" s="52" t="s">
@@ -12137,7 +12127,7 @@
       <c r="G19" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="138">
+      <c r="H19" s="136">
         <v>45782</v>
       </c>
       <c r="I19" s="52" t="s">
@@ -12146,7 +12136,7 @@
       <c r="J19" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="138">
+      <c r="K19" s="136">
         <v>45843</v>
       </c>
       <c r="L19" s="52" t="s">
@@ -12176,7 +12166,7 @@
       <c r="G20" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="136">
         <v>45782</v>
       </c>
       <c r="I20" s="52" t="s">
@@ -12185,7 +12175,7 @@
       <c r="J20" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="138">
+      <c r="K20" s="136">
         <v>45843</v>
       </c>
       <c r="L20" s="52" t="s">
@@ -12215,7 +12205,7 @@
       <c r="G21" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="138">
+      <c r="H21" s="136">
         <v>45782</v>
       </c>
       <c r="I21" s="52" t="s">
@@ -12224,7 +12214,7 @@
       <c r="J21" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="138">
+      <c r="K21" s="136">
         <v>45843</v>
       </c>
       <c r="L21" s="52" t="s">
@@ -12254,7 +12244,7 @@
       <c r="G22" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="138">
+      <c r="H22" s="136">
         <v>45782</v>
       </c>
       <c r="I22" s="52" t="s">
@@ -12263,7 +12253,7 @@
       <c r="J22" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="138">
+      <c r="K22" s="136">
         <v>45843</v>
       </c>
       <c r="L22" s="52" t="s">
@@ -12293,7 +12283,7 @@
       <c r="G23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="138">
+      <c r="H23" s="136">
         <v>45782</v>
       </c>
       <c r="I23" s="52" t="s">
@@ -12302,7 +12292,7 @@
       <c r="J23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="138">
+      <c r="K23" s="136">
         <v>45843</v>
       </c>
       <c r="L23" s="52" t="s">
@@ -12332,7 +12322,7 @@
       <c r="G24" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="138">
+      <c r="H24" s="136">
         <v>45782</v>
       </c>
       <c r="I24" s="52" t="s">
@@ -12341,7 +12331,7 @@
       <c r="J24" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="138">
+      <c r="K24" s="136">
         <v>45843</v>
       </c>
       <c r="L24" s="52" t="s">
@@ -12371,7 +12361,7 @@
       <c r="G25" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="138">
+      <c r="H25" s="136">
         <v>45782</v>
       </c>
       <c r="I25" s="52" t="s">
@@ -12380,7 +12370,7 @@
       <c r="J25" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K25" s="138">
+      <c r="K25" s="136">
         <v>45843</v>
       </c>
       <c r="L25" s="52" t="s">
@@ -12390,13 +12380,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -12405,6 +12388,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="1">
@@ -12423,60 +12413,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705820BC-FCB5-4D6A-9F2B-DC4666672488}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="57" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="118" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="118" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="118" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" style="118" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46" style="118" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="118" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="118"/>
+    <col min="1" max="1" width="21.33203125" style="116" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="116" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="116" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" style="116" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="116" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="121" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:13" s="119" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
-      <c r="J1" s="125"/>
-    </row>
-    <row r="2" spans="1:13" s="121" customFormat="1">
-      <c r="A2" s="133" t="s">
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
+      <c r="J1" s="123"/>
+    </row>
+    <row r="2" spans="1:13" s="119" customFormat="1">
+      <c r="A2" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="171" t="s">
         <v>481</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="126"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="1:13" s="121" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="129"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124"/>
+      <c r="J2" s="123"/>
+    </row>
+    <row r="3" spans="1:13" s="119" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="127"/>
       <c r="B3" s="99" t="s">
         <v>15</v>
       </c>
@@ -12492,126 +12482,126 @@
       <c r="F3" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="126"/>
-      <c r="J3" s="125"/>
-    </row>
-    <row r="4" spans="1:13" s="121" customFormat="1">
-      <c r="A4" s="132" t="s">
+      <c r="G3" s="123"/>
+      <c r="H3" s="124"/>
+      <c r="J3" s="123"/>
+    </row>
+    <row r="4" spans="1:13" s="119" customFormat="1">
+      <c r="A4" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="131">
+      <c r="B4" s="129">
         <v>3</v>
       </c>
-      <c r="C4" s="131">
-        <v>2</v>
-      </c>
-      <c r="D4" s="129">
+      <c r="C4" s="129">
+        <v>1</v>
+      </c>
+      <c r="D4" s="127">
         <f>COUNTIF(G11:G16,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="130">
-        <v>0</v>
-      </c>
-      <c r="F4" s="129">
+      <c r="E4" s="128">
+        <v>1</v>
+      </c>
+      <c r="F4" s="127">
         <v>5</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="J4" s="125"/>
-    </row>
-    <row r="5" spans="1:13" s="121" customFormat="1">
-      <c r="A5" s="132" t="s">
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="J4" s="123"/>
+    </row>
+    <row r="5" spans="1:13" s="119" customFormat="1">
+      <c r="A5" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="131">
+      <c r="B5" s="129">
         <v>3</v>
       </c>
-      <c r="C5" s="131">
+      <c r="C5" s="129">
         <v>1</v>
       </c>
-      <c r="D5" s="129">
+      <c r="D5" s="127">
         <f>COUNTIF(J11:J16,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="128">
         <v>1</v>
       </c>
-      <c r="F5" s="129">
+      <c r="F5" s="127">
         <v>5</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="126"/>
-      <c r="J5" s="125"/>
-    </row>
-    <row r="6" spans="1:13" s="121" customFormat="1" ht="409.2" customHeight="1">
-      <c r="A6" s="128"/>
-      <c r="B6" s="127"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="J6" s="125"/>
-    </row>
-    <row r="7" spans="1:13" s="121" customFormat="1">
-      <c r="A7" s="162" t="s">
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
+      <c r="J5" s="123"/>
+    </row>
+    <row r="6" spans="1:13" s="119" customFormat="1" ht="409.2" customHeight="1">
+      <c r="A6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
+      <c r="J6" s="123"/>
+    </row>
+    <row r="7" spans="1:13" s="119" customFormat="1">
+      <c r="A7" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="162" t="s">
+      <c r="G7" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162" t="s">
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="121" customFormat="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162" t="s">
+    <row r="8" spans="1:13" s="119" customFormat="1">
+      <c r="A8" s="166"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162" t="s">
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-    </row>
-    <row r="9" spans="1:13" s="121" customFormat="1">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+    </row>
+    <row r="9" spans="1:13" s="119" customFormat="1">
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
       <c r="G9" s="100" t="s">
         <v>54</v>
       </c>
@@ -12630,26 +12620,26 @@
       <c r="L9" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="162"/>
-    </row>
-    <row r="10" spans="1:13" s="121" customFormat="1">
-      <c r="A10" s="165" t="s">
+      <c r="M9" s="166"/>
+    </row>
+    <row r="10" spans="1:13" s="119" customFormat="1">
+      <c r="A10" s="167" t="s">
         <v>482</v>
       </c>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-    </row>
-    <row r="11" spans="1:13" s="121" customFormat="1" ht="50.4">
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="167"/>
+    </row>
+    <row r="11" spans="1:13" s="119" customFormat="1" ht="50.4">
       <c r="A11" s="102" t="s">
         <v>488</v>
       </c>
@@ -12667,7 +12657,7 @@
       <c r="G11" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="138">
+      <c r="H11" s="136">
         <v>45782</v>
       </c>
       <c r="I11" s="107" t="s">
@@ -12676,7 +12666,7 @@
       <c r="J11" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="136">
         <v>45843</v>
       </c>
       <c r="L11" s="107" t="s">
@@ -12684,7 +12674,7 @@
       </c>
       <c r="M11" s="104"/>
     </row>
-    <row r="12" spans="1:13" s="121" customFormat="1" ht="67.2">
+    <row r="12" spans="1:13" s="119" customFormat="1" ht="67.2">
       <c r="A12" s="102" t="s">
         <v>489</v>
       </c>
@@ -12702,7 +12692,7 @@
       <c r="G12" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="138">
+      <c r="H12" s="136">
         <v>45782</v>
       </c>
       <c r="I12" s="107" t="s">
@@ -12711,7 +12701,7 @@
       <c r="J12" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="136">
         <v>45843</v>
       </c>
       <c r="L12" s="107" t="s">
@@ -12719,44 +12709,44 @@
       </c>
       <c r="M12" s="104"/>
     </row>
-    <row r="13" spans="1:13" s="121" customFormat="1">
-      <c r="A13" s="163" t="s">
+    <row r="13" spans="1:13" s="119" customFormat="1">
+      <c r="A13" s="164" t="s">
         <v>483</v>
       </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
-    </row>
-    <row r="14" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
+      <c r="B13" s="165"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+    </row>
+    <row r="14" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
       <c r="A14" s="108" t="s">
         <v>491</v>
       </c>
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="118" t="s">
         <v>505</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="118" t="s">
         <v>490</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120" t="s">
+      <c r="D14" s="118"/>
+      <c r="E14" s="118" t="s">
         <v>506</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="118" t="s">
         <v>506</v>
       </c>
       <c r="G14" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="138">
+      <c r="H14" s="136">
         <v>45782</v>
       </c>
       <c r="I14" s="107" t="s">
@@ -12765,37 +12755,37 @@
       <c r="J14" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="138">
+      <c r="K14" s="136">
         <v>45843</v>
       </c>
       <c r="L14" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="122"/>
-    </row>
-    <row r="15" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M14" s="120"/>
+    </row>
+    <row r="15" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
       <c r="A15" s="108" t="s">
         <v>495</v>
       </c>
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="118" t="s">
         <v>507</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="121" t="s">
         <v>508</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="118" t="s">
         <v>492</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="118" t="s">
         <v>509</v>
       </c>
-      <c r="F15" s="120" t="s">
+      <c r="F15" s="118" t="s">
         <v>510</v>
       </c>
       <c r="G15" s="106" t="s">
         <v>499</v>
       </c>
-      <c r="H15" s="138">
+      <c r="H15" s="136">
         <v>45782</v>
       </c>
       <c r="I15" s="107" t="s">
@@ -12804,54 +12794,54 @@
       <c r="J15" s="106" t="s">
         <v>499</v>
       </c>
-      <c r="K15" s="138">
+      <c r="K15" s="136">
         <v>45843</v>
       </c>
       <c r="L15" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="122"/>
-    </row>
-    <row r="16" spans="1:13" s="121" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M15" s="120"/>
+    </row>
+    <row r="16" spans="1:13" s="119" customFormat="1" ht="103.8" customHeight="1">
       <c r="A16" s="108" t="s">
         <v>496</v>
       </c>
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="118" t="s">
         <v>493</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="121" t="s">
         <v>494</v>
       </c>
-      <c r="D16" s="120" t="s">
+      <c r="D16" s="118" t="s">
         <v>312</v>
       </c>
-      <c r="E16" s="120" t="s">
+      <c r="E16" s="118" t="s">
         <v>511</v>
       </c>
-      <c r="F16" s="120" t="s">
+      <c r="F16" s="118" t="s">
         <v>510</v>
       </c>
       <c r="G16" s="106" t="s">
         <v>512</v>
       </c>
-      <c r="H16" s="138">
+      <c r="H16" s="136">
         <v>45782</v>
       </c>
       <c r="I16" s="107" t="s">
         <v>57</v>
       </c>
       <c r="J16" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="K16" s="138">
+        <v>512</v>
+      </c>
+      <c r="K16" s="136">
         <v>45843</v>
       </c>
       <c r="L16" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="122"/>
-    </row>
-    <row r="17" s="119" customFormat="1" ht="103.8" customHeight="1"/>
+      <c r="M16" s="120"/>
+    </row>
+    <row r="17" s="117" customFormat="1" ht="103.8" customHeight="1"/>
     <row r="18" ht="103.8" customHeight="1"/>
     <row r="19" ht="103.8" customHeight="1"/>
     <row r="20" ht="103.8" customHeight="1"/>
@@ -12860,6 +12850,13 @@
     <row r="23" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -12868,13 +12865,6 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="1">
@@ -12919,13 +12909,13 @@
       <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -12934,13 +12924,13 @@
       <c r="A2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="169" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -13026,64 +13016,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="168" t="s">
+      <c r="G7" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168" t="s">
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168" t="s">
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168" t="s">
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="168"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="46" t="s">
         <v>54</v>
       </c>
@@ -13102,24 +13092,24 @@
       <c r="L9" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="168"/>
+      <c r="M9" s="173"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="174" t="s">
         <v>356</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A11" s="48" t="s">
@@ -13139,7 +13129,7 @@
       <c r="G11" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="138">
+      <c r="H11" s="136">
         <v>45813</v>
       </c>
       <c r="I11" s="52" t="s">
@@ -13148,7 +13138,7 @@
       <c r="J11" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="136">
         <v>45843</v>
       </c>
       <c r="L11" s="52" t="s">
@@ -13174,7 +13164,7 @@
       <c r="G12" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="138">
+      <c r="H12" s="136">
         <v>45813</v>
       </c>
       <c r="I12" s="52" t="s">
@@ -13183,7 +13173,7 @@
       <c r="J12" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="136">
         <v>45843</v>
       </c>
       <c r="L12" s="52" t="s">
@@ -13209,7 +13199,7 @@
       <c r="G13" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="138">
+      <c r="H13" s="136">
         <v>45813</v>
       </c>
       <c r="I13" s="52" t="s">
@@ -13218,7 +13208,7 @@
       <c r="J13" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="136">
         <v>45843</v>
       </c>
       <c r="L13" s="52" t="s">
@@ -13244,7 +13234,7 @@
       <c r="G14" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="138">
+      <c r="H14" s="136">
         <v>45813</v>
       </c>
       <c r="I14" s="52" t="s">
@@ -13253,7 +13243,7 @@
       <c r="J14" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="138">
+      <c r="K14" s="136">
         <v>45843</v>
       </c>
       <c r="L14" s="52" t="s">
@@ -13279,7 +13269,7 @@
       <c r="G15" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="138">
+      <c r="H15" s="136">
         <v>45813</v>
       </c>
       <c r="I15" s="52" t="s">
@@ -13288,7 +13278,7 @@
       <c r="J15" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="138">
+      <c r="K15" s="136">
         <v>45843</v>
       </c>
       <c r="L15" s="52" t="s">
@@ -13297,21 +13287,21 @@
       <c r="M15" s="85"/>
     </row>
     <row r="16" spans="1:13" s="31" customFormat="1">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="172" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="169"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
     </row>
     <row r="17" spans="1:13" s="31" customFormat="1" ht="151.19999999999999">
       <c r="A17" s="49" t="s">
@@ -13333,7 +13323,7 @@
       <c r="G17" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="138">
+      <c r="H17" s="136">
         <v>45813</v>
       </c>
       <c r="I17" s="52" t="s">
@@ -13342,7 +13332,7 @@
       <c r="J17" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="138">
+      <c r="K17" s="136">
         <v>45843</v>
       </c>
       <c r="L17" s="52" t="s">
@@ -13372,7 +13362,7 @@
       <c r="G18" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="138">
+      <c r="H18" s="136">
         <v>45813</v>
       </c>
       <c r="I18" s="52" t="s">
@@ -13381,7 +13371,7 @@
       <c r="J18" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="138">
+      <c r="K18" s="136">
         <v>45843</v>
       </c>
       <c r="L18" s="52" t="s">
@@ -13411,7 +13401,7 @@
       <c r="G19" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="138">
+      <c r="H19" s="136">
         <v>45813</v>
       </c>
       <c r="I19" s="52" t="s">
@@ -13420,7 +13410,7 @@
       <c r="J19" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="138">
+      <c r="K19" s="136">
         <v>45843</v>
       </c>
       <c r="L19" s="52" t="s">
@@ -13450,7 +13440,7 @@
       <c r="G20" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="136">
         <v>45813</v>
       </c>
       <c r="I20" s="52" t="s">
@@ -13459,7 +13449,7 @@
       <c r="J20" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="138">
+      <c r="K20" s="136">
         <v>45843</v>
       </c>
       <c r="L20" s="52" t="s">
@@ -13471,10 +13461,10 @@
       <c r="A21" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="133" t="s">
         <v>386</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="133" t="s">
         <v>387</v>
       </c>
       <c r="D21" s="49" t="s">
@@ -13489,7 +13479,7 @@
       <c r="G21" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="138">
+      <c r="H21" s="136">
         <v>45813</v>
       </c>
       <c r="I21" s="52" t="s">
@@ -13498,7 +13488,7 @@
       <c r="J21" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="138">
+      <c r="K21" s="136">
         <v>45843</v>
       </c>
       <c r="L21" s="52" t="s">
@@ -13510,10 +13500,10 @@
       <c r="A22" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="133" t="s">
         <v>388</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="133" t="s">
         <v>389</v>
       </c>
       <c r="D22" s="49" t="s">
@@ -13528,7 +13518,7 @@
       <c r="G22" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="138">
+      <c r="H22" s="136">
         <v>45813</v>
       </c>
       <c r="I22" s="52" t="s">
@@ -13537,7 +13527,7 @@
       <c r="J22" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="138">
+      <c r="K22" s="136">
         <v>45843</v>
       </c>
       <c r="L22" s="52" t="s">
@@ -13549,10 +13539,10 @@
       <c r="A23" s="49" t="s">
         <v>414</v>
       </c>
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="133" t="s">
         <v>390</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="133" t="s">
         <v>391</v>
       </c>
       <c r="D23" s="49" t="s">
@@ -13567,7 +13557,7 @@
       <c r="G23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="138">
+      <c r="H23" s="136">
         <v>45813</v>
       </c>
       <c r="I23" s="52" t="s">
@@ -13576,7 +13566,7 @@
       <c r="J23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="138">
+      <c r="K23" s="136">
         <v>45843</v>
       </c>
       <c r="L23" s="52" t="s">
@@ -13606,7 +13596,7 @@
       <c r="G24" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="138">
+      <c r="H24" s="136">
         <v>45813</v>
       </c>
       <c r="I24" s="52" t="s">
@@ -13615,7 +13605,7 @@
       <c r="J24" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="138">
+      <c r="K24" s="136">
         <v>45843</v>
       </c>
       <c r="L24" s="52" t="s">
@@ -13645,14 +13635,14 @@
       <c r="G25" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="138">
+      <c r="H25" s="136">
         <v>45813</v>
       </c>
       <c r="I25" s="52"/>
       <c r="J25" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K25" s="138">
+      <c r="K25" s="136">
         <v>45843</v>
       </c>
       <c r="L25" s="52" t="s">
@@ -13682,14 +13672,14 @@
       <c r="G26" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="138">
+      <c r="H26" s="136">
         <v>45813</v>
       </c>
       <c r="I26" s="52"/>
       <c r="J26" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="138">
+      <c r="K26" s="136">
         <v>45843</v>
       </c>
       <c r="L26" s="52" t="s">
@@ -13719,14 +13709,14 @@
       <c r="G27" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="H27" s="138">
+      <c r="H27" s="136">
         <v>45813</v>
       </c>
       <c r="I27" s="52"/>
       <c r="J27" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="138">
+      <c r="K27" s="136">
         <v>45843</v>
       </c>
       <c r="L27" s="52" t="s">
@@ -13736,6 +13726,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -13744,13 +13741,6 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="1">
